--- a/docs_iniciales/infoDep.xlsx
+++ b/docs_iniciales/infoDep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\TFG-PAP\docs_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EECBB-D374-49BE-BE6C-5BFF22867043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC55B3-32F7-44D2-A45C-AADBB8F59572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{394F4927-C1E1-A346-8915-8397524DA8B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="372">
   <si>
     <t>TORO BONILLA, JOSE MIGUEL</t>
   </si>
@@ -1158,7 +1158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1237,6 +1237,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1276,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1298,18 +1305,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780746D-3166-114F-9835-A18A1D1EC934}">
   <dimension ref="A1:CW554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="L471" sqref="L471"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1642,10 +1643,10 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1"/>
       <c r="J1" s="11"/>
       <c r="K1" s="1"/>
@@ -1923,10 +1924,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="11"/>
       <c r="K2" s="3" t="s">
@@ -2206,10 +2207,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="1"/>
       <c r="J3" s="11"/>
       <c r="K3" s="3" t="s">
@@ -2489,10 +2490,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1"/>
       <c r="J4" s="11"/>
       <c r="K4" s="3" t="s">
@@ -2772,10 +2773,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="1"/>
       <c r="J5" s="11"/>
       <c r="K5" s="3" t="s">
@@ -3055,10 +3056,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="1"/>
       <c r="J6" s="11"/>
       <c r="K6" s="3" t="s">
@@ -3484,7 +3485,9 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="K8" s="7" t="s">
         <v>108</v>
       </c>
@@ -8769,376 +8772,376 @@
       <c r="CV50" s="1"/>
       <c r="CW50" s="1"/>
     </row>
-    <row r="51" spans="1:101" s="21" customFormat="1">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:101">
+      <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="1">
         <v>2040023</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="17">
-        <v>1</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
         <v>2</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="1">
         <v>3.6</v>
       </c>
-      <c r="I51" s="23">
-        <v>1</v>
-      </c>
-      <c r="J51" s="19" t="s">
+      <c r="I51" s="15">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
-      <c r="AM51" s="17"/>
-      <c r="AN51" s="17"/>
-      <c r="AO51" s="17"/>
-      <c r="AP51" s="17"/>
-      <c r="AQ51" s="17"/>
-      <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
-      <c r="AT51" s="17"/>
-      <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
-      <c r="AW51" s="17"/>
-      <c r="AX51" s="17"/>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
-      <c r="BB51" s="17"/>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="17"/>
-      <c r="BE51" s="17"/>
-      <c r="BF51" s="17"/>
-      <c r="BG51" s="17"/>
-      <c r="BH51" s="17"/>
-      <c r="BI51" s="17"/>
-      <c r="BJ51" s="17"/>
-      <c r="BK51" s="17"/>
-      <c r="BL51" s="17"/>
-      <c r="BM51" s="17"/>
-      <c r="BN51" s="17"/>
-      <c r="BO51" s="17"/>
-      <c r="BP51" s="17"/>
-      <c r="BQ51" s="17"/>
-      <c r="BR51" s="17"/>
-      <c r="BS51" s="17"/>
-      <c r="BT51" s="17"/>
-      <c r="BU51" s="17"/>
-      <c r="BV51" s="17"/>
-      <c r="BW51" s="17"/>
-      <c r="BX51" s="17"/>
-      <c r="BY51" s="17"/>
-      <c r="BZ51" s="17"/>
-      <c r="CA51" s="17"/>
-      <c r="CB51" s="17"/>
-      <c r="CC51" s="17"/>
-      <c r="CD51" s="17"/>
-      <c r="CE51" s="17"/>
-      <c r="CF51" s="17"/>
-      <c r="CG51" s="17"/>
-      <c r="CH51" s="17"/>
-      <c r="CI51" s="17"/>
-      <c r="CJ51" s="17"/>
-      <c r="CK51" s="17"/>
-      <c r="CL51" s="17"/>
-      <c r="CM51" s="17"/>
-      <c r="CN51" s="17"/>
-      <c r="CO51" s="17"/>
-      <c r="CP51" s="17"/>
-      <c r="CQ51" s="17"/>
-      <c r="CR51" s="17"/>
-      <c r="CS51" s="17"/>
-      <c r="CT51" s="17"/>
-      <c r="CU51" s="17"/>
-      <c r="CV51" s="17"/>
-      <c r="CW51" s="17"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
     </row>
-    <row r="52" spans="1:101" s="21" customFormat="1">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:101">
+      <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="1">
         <v>2040023</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="17">
-        <v>1</v>
-      </c>
-      <c r="G52" s="17">
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
         <v>2</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="1">
         <v>2.4</v>
       </c>
-      <c r="I52" s="23">
-        <v>1</v>
-      </c>
-      <c r="J52" s="18"/>
-      <c r="K52" s="19" t="s">
+      <c r="I52" s="15">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-      <c r="AN52" s="17"/>
-      <c r="AO52" s="17"/>
-      <c r="AP52" s="17"/>
-      <c r="AQ52" s="17"/>
-      <c r="AR52" s="17"/>
-      <c r="AS52" s="17"/>
-      <c r="AT52" s="17"/>
-      <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
-      <c r="AW52" s="17"/>
-      <c r="AX52" s="17"/>
-      <c r="AY52" s="17"/>
-      <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
-      <c r="BB52" s="17"/>
-      <c r="BC52" s="17"/>
-      <c r="BD52" s="17"/>
-      <c r="BE52" s="17"/>
-      <c r="BF52" s="17"/>
-      <c r="BG52" s="17"/>
-      <c r="BH52" s="17"/>
-      <c r="BI52" s="17"/>
-      <c r="BJ52" s="17"/>
-      <c r="BK52" s="17"/>
-      <c r="BL52" s="17"/>
-      <c r="BM52" s="17"/>
-      <c r="BN52" s="17"/>
-      <c r="BO52" s="17"/>
-      <c r="BP52" s="17"/>
-      <c r="BQ52" s="17"/>
-      <c r="BR52" s="17"/>
-      <c r="BS52" s="17"/>
-      <c r="BT52" s="17"/>
-      <c r="BU52" s="17"/>
-      <c r="BV52" s="17"/>
-      <c r="BW52" s="17"/>
-      <c r="BX52" s="17"/>
-      <c r="BY52" s="17"/>
-      <c r="BZ52" s="17"/>
-      <c r="CA52" s="17"/>
-      <c r="CB52" s="17"/>
-      <c r="CC52" s="17"/>
-      <c r="CD52" s="17"/>
-      <c r="CE52" s="17"/>
-      <c r="CF52" s="17"/>
-      <c r="CG52" s="17"/>
-      <c r="CH52" s="17"/>
-      <c r="CI52" s="17"/>
-      <c r="CJ52" s="17"/>
-      <c r="CK52" s="17"/>
-      <c r="CL52" s="17"/>
-      <c r="CM52" s="17"/>
-      <c r="CN52" s="17"/>
-      <c r="CO52" s="17"/>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="17"/>
-      <c r="CS52" s="17"/>
-      <c r="CT52" s="17"/>
-      <c r="CU52" s="17"/>
-      <c r="CV52" s="17"/>
-      <c r="CW52" s="17"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1"/>
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
     </row>
-    <row r="53" spans="1:101" s="21" customFormat="1">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:101">
+      <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="1">
         <v>2040023</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="1">
         <v>2</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="1">
         <v>2</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="1">
         <v>2.4</v>
       </c>
-      <c r="I53" s="23">
-        <v>1</v>
-      </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="19" t="s">
+      <c r="I53" s="15">
+        <v>1</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
-      <c r="AG53" s="17"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
-      <c r="AJ53" s="17"/>
-      <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-      <c r="AN53" s="17"/>
-      <c r="AO53" s="17"/>
-      <c r="AP53" s="17"/>
-      <c r="AQ53" s="17"/>
-      <c r="AR53" s="17"/>
-      <c r="AS53" s="17"/>
-      <c r="AT53" s="17"/>
-      <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
-      <c r="AW53" s="17"/>
-      <c r="AX53" s="17"/>
-      <c r="AY53" s="17"/>
-      <c r="AZ53" s="17"/>
-      <c r="BA53" s="17"/>
-      <c r="BB53" s="17"/>
-      <c r="BC53" s="17"/>
-      <c r="BD53" s="17"/>
-      <c r="BE53" s="17"/>
-      <c r="BF53" s="17"/>
-      <c r="BG53" s="17"/>
-      <c r="BH53" s="17"/>
-      <c r="BI53" s="17"/>
-      <c r="BJ53" s="17"/>
-      <c r="BK53" s="17"/>
-      <c r="BL53" s="17"/>
-      <c r="BM53" s="17"/>
-      <c r="BN53" s="17"/>
-      <c r="BO53" s="17"/>
-      <c r="BP53" s="17"/>
-      <c r="BQ53" s="17"/>
-      <c r="BR53" s="17"/>
-      <c r="BS53" s="17"/>
-      <c r="BT53" s="17"/>
-      <c r="BU53" s="17"/>
-      <c r="BV53" s="17"/>
-      <c r="BW53" s="17"/>
-      <c r="BX53" s="17"/>
-      <c r="BY53" s="17"/>
-      <c r="BZ53" s="17"/>
-      <c r="CA53" s="17"/>
-      <c r="CB53" s="17"/>
-      <c r="CC53" s="17"/>
-      <c r="CD53" s="17"/>
-      <c r="CE53" s="17"/>
-      <c r="CF53" s="17"/>
-      <c r="CG53" s="17"/>
-      <c r="CH53" s="17"/>
-      <c r="CI53" s="17"/>
-      <c r="CJ53" s="17"/>
-      <c r="CK53" s="17"/>
-      <c r="CL53" s="17"/>
-      <c r="CM53" s="17"/>
-      <c r="CN53" s="17"/>
-      <c r="CO53" s="17"/>
-      <c r="CP53" s="17"/>
-      <c r="CQ53" s="17"/>
-      <c r="CR53" s="17"/>
-      <c r="CS53" s="17"/>
-      <c r="CT53" s="17"/>
-      <c r="CU53" s="17"/>
-      <c r="CV53" s="17"/>
-      <c r="CW53" s="17"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="1"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="1"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="1"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="1"/>
+      <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="1"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
+      <c r="CW53" s="1"/>
     </row>
     <row r="54" spans="1:101">
       <c r="A54" s="1" t="s">
@@ -17671,130 +17674,130 @@
       <c r="CV122" s="1"/>
       <c r="CW122" s="1"/>
     </row>
-    <row r="123" spans="1:101" s="21" customFormat="1">
-      <c r="A123" s="17" t="s">
+    <row r="123" spans="1:101">
+      <c r="A123" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123" s="1">
         <v>3</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G123" s="1">
         <v>2</v>
       </c>
-      <c r="H123" s="17">
+      <c r="H123" s="1">
         <v>3.6</v>
       </c>
-      <c r="I123" s="23">
-        <v>1</v>
-      </c>
-      <c r="J123" s="19" t="s">
+      <c r="I123" s="15">
+        <v>1</v>
+      </c>
+      <c r="J123" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K123" s="19" t="s">
+      <c r="K123" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
-      <c r="R123" s="17"/>
-      <c r="S123" s="17"/>
-      <c r="T123" s="17"/>
-      <c r="U123" s="17"/>
-      <c r="V123" s="17"/>
-      <c r="W123" s="17"/>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="17"/>
-      <c r="Z123" s="17"/>
-      <c r="AA123" s="17"/>
-      <c r="AB123" s="17"/>
-      <c r="AC123" s="17"/>
-      <c r="AD123" s="17"/>
-      <c r="AE123" s="17"/>
-      <c r="AF123" s="17"/>
-      <c r="AG123" s="17"/>
-      <c r="AH123" s="17"/>
-      <c r="AI123" s="17"/>
-      <c r="AJ123" s="17"/>
-      <c r="AK123" s="17"/>
-      <c r="AL123" s="17"/>
-      <c r="AM123" s="17"/>
-      <c r="AN123" s="17"/>
-      <c r="AO123" s="17"/>
-      <c r="AP123" s="17"/>
-      <c r="AQ123" s="17"/>
-      <c r="AR123" s="17"/>
-      <c r="AS123" s="17"/>
-      <c r="AT123" s="17"/>
-      <c r="AU123" s="17"/>
-      <c r="AV123" s="17"/>
-      <c r="AW123" s="17"/>
-      <c r="AX123" s="17"/>
-      <c r="AY123" s="17"/>
-      <c r="AZ123" s="17"/>
-      <c r="BA123" s="17"/>
-      <c r="BB123" s="17"/>
-      <c r="BC123" s="17"/>
-      <c r="BD123" s="17"/>
-      <c r="BE123" s="17"/>
-      <c r="BF123" s="17"/>
-      <c r="BG123" s="17"/>
-      <c r="BH123" s="17"/>
-      <c r="BI123" s="17"/>
-      <c r="BJ123" s="17"/>
-      <c r="BK123" s="17"/>
-      <c r="BL123" s="17"/>
-      <c r="BM123" s="17"/>
-      <c r="BN123" s="17"/>
-      <c r="BO123" s="17"/>
-      <c r="BP123" s="17"/>
-      <c r="BQ123" s="17"/>
-      <c r="BR123" s="17"/>
-      <c r="BS123" s="17"/>
-      <c r="BT123" s="17"/>
-      <c r="BU123" s="17"/>
-      <c r="BV123" s="24"/>
-      <c r="BW123" s="17"/>
-      <c r="BX123" s="17"/>
-      <c r="BY123" s="17"/>
-      <c r="BZ123" s="17"/>
-      <c r="CA123" s="17"/>
-      <c r="CB123" s="17"/>
-      <c r="CC123" s="17"/>
-      <c r="CD123" s="17"/>
-      <c r="CE123" s="17"/>
-      <c r="CF123" s="17"/>
-      <c r="CG123" s="17"/>
-      <c r="CH123" s="17"/>
-      <c r="CI123" s="17"/>
-      <c r="CJ123" s="17"/>
-      <c r="CK123" s="17"/>
-      <c r="CL123" s="17"/>
-      <c r="CM123" s="17"/>
-      <c r="CN123" s="17"/>
-      <c r="CO123" s="17"/>
-      <c r="CP123" s="17"/>
-      <c r="CQ123" s="17"/>
-      <c r="CR123" s="17"/>
-      <c r="CS123" s="17"/>
-      <c r="CT123" s="17"/>
-      <c r="CU123" s="17"/>
-      <c r="CV123" s="17"/>
-      <c r="CW123" s="17"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+      <c r="AJ123" s="1"/>
+      <c r="AK123" s="1"/>
+      <c r="AL123" s="1"/>
+      <c r="AM123" s="1"/>
+      <c r="AN123" s="1"/>
+      <c r="AO123" s="1"/>
+      <c r="AP123" s="1"/>
+      <c r="AQ123" s="1"/>
+      <c r="AR123" s="1"/>
+      <c r="AS123" s="1"/>
+      <c r="AT123" s="1"/>
+      <c r="AU123" s="1"/>
+      <c r="AV123" s="1"/>
+      <c r="AW123" s="1"/>
+      <c r="AX123" s="1"/>
+      <c r="AY123" s="1"/>
+      <c r="AZ123" s="1"/>
+      <c r="BA123" s="1"/>
+      <c r="BB123" s="1"/>
+      <c r="BC123" s="1"/>
+      <c r="BD123" s="1"/>
+      <c r="BE123" s="1"/>
+      <c r="BF123" s="1"/>
+      <c r="BG123" s="1"/>
+      <c r="BH123" s="1"/>
+      <c r="BI123" s="1"/>
+      <c r="BJ123" s="1"/>
+      <c r="BK123" s="1"/>
+      <c r="BL123" s="1"/>
+      <c r="BM123" s="1"/>
+      <c r="BN123" s="1"/>
+      <c r="BO123" s="1"/>
+      <c r="BP123" s="1"/>
+      <c r="BQ123" s="1"/>
+      <c r="BR123" s="1"/>
+      <c r="BS123" s="1"/>
+      <c r="BT123" s="1"/>
+      <c r="BU123" s="1"/>
+      <c r="BV123" s="9"/>
+      <c r="BW123" s="1"/>
+      <c r="BX123" s="1"/>
+      <c r="BY123" s="1"/>
+      <c r="BZ123" s="1"/>
+      <c r="CA123" s="1"/>
+      <c r="CB123" s="1"/>
+      <c r="CC123" s="1"/>
+      <c r="CD123" s="1"/>
+      <c r="CE123" s="1"/>
+      <c r="CF123" s="1"/>
+      <c r="CG123" s="1"/>
+      <c r="CH123" s="1"/>
+      <c r="CI123" s="1"/>
+      <c r="CJ123" s="1"/>
+      <c r="CK123" s="1"/>
+      <c r="CL123" s="1"/>
+      <c r="CM123" s="1"/>
+      <c r="CN123" s="1"/>
+      <c r="CO123" s="1"/>
+      <c r="CP123" s="1"/>
+      <c r="CQ123" s="1"/>
+      <c r="CR123" s="1"/>
+      <c r="CS123" s="1"/>
+      <c r="CT123" s="1"/>
+      <c r="CU123" s="1"/>
+      <c r="CV123" s="1"/>
+      <c r="CW123" s="1"/>
     </row>
     <row r="124" spans="1:101">
       <c r="A124" s="1" t="s">
@@ -24859,622 +24862,622 @@
       <c r="CV180" s="1"/>
       <c r="CW180" s="1"/>
     </row>
-    <row r="181" spans="1:101" s="21" customFormat="1">
-      <c r="A181" s="17" t="s">
+    <row r="181" spans="1:101">
+      <c r="A181" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B181" s="17">
+      <c r="B181" s="1">
         <v>2050027</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D181" s="17" t="s">
+      <c r="D181" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E181" s="17" t="s">
+      <c r="E181" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F181" s="17">
-        <v>1</v>
-      </c>
-      <c r="G181" s="17">
-        <v>1</v>
-      </c>
-      <c r="H181" s="17">
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1">
+        <v>1</v>
+      </c>
+      <c r="H181" s="1">
         <v>3.6</v>
       </c>
-      <c r="I181" s="23">
-        <v>1</v>
-      </c>
-      <c r="J181" s="19" t="s">
+      <c r="I181" s="15">
+        <v>1</v>
+      </c>
+      <c r="J181" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K181" s="19" t="s">
+      <c r="K181" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
-      <c r="O181" s="17"/>
-      <c r="P181" s="17"/>
-      <c r="Q181" s="17"/>
-      <c r="R181" s="17"/>
-      <c r="S181" s="17"/>
-      <c r="T181" s="17"/>
-      <c r="U181" s="17"/>
-      <c r="V181" s="17"/>
-      <c r="W181" s="17"/>
-      <c r="X181" s="17"/>
-      <c r="Y181" s="17"/>
-      <c r="Z181" s="17"/>
-      <c r="AA181" s="17"/>
-      <c r="AB181" s="17"/>
-      <c r="AC181" s="17"/>
-      <c r="AD181" s="17"/>
-      <c r="AE181" s="17"/>
-      <c r="AF181" s="17"/>
-      <c r="AG181" s="17"/>
-      <c r="AH181" s="17"/>
-      <c r="AI181" s="17"/>
-      <c r="AJ181" s="17"/>
-      <c r="AK181" s="17"/>
-      <c r="AL181" s="17"/>
-      <c r="AM181" s="17"/>
-      <c r="AN181" s="17"/>
-      <c r="AO181" s="17"/>
-      <c r="AP181" s="17"/>
-      <c r="AQ181" s="17"/>
-      <c r="AR181" s="17"/>
-      <c r="AS181" s="17"/>
-      <c r="AT181" s="17"/>
-      <c r="AU181" s="17"/>
-      <c r="AV181" s="17"/>
-      <c r="AW181" s="17"/>
-      <c r="AX181" s="17"/>
-      <c r="AY181" s="17"/>
-      <c r="AZ181" s="17"/>
-      <c r="BA181" s="17"/>
-      <c r="BB181" s="17"/>
-      <c r="BC181" s="17"/>
-      <c r="BD181" s="17"/>
-      <c r="BE181" s="17"/>
-      <c r="BF181" s="17"/>
-      <c r="BG181" s="17"/>
-      <c r="BH181" s="17"/>
-      <c r="BI181" s="17"/>
-      <c r="BJ181" s="17"/>
-      <c r="BK181" s="17"/>
-      <c r="BL181" s="17"/>
-      <c r="BM181" s="17"/>
-      <c r="BN181" s="17"/>
-      <c r="BO181" s="17"/>
-      <c r="BP181" s="17"/>
-      <c r="BQ181" s="17"/>
-      <c r="BR181" s="17"/>
-      <c r="BS181" s="17"/>
-      <c r="BT181" s="17"/>
-      <c r="BU181" s="17"/>
-      <c r="BV181" s="17"/>
-      <c r="BW181" s="17"/>
-      <c r="BX181" s="17"/>
-      <c r="BY181" s="17"/>
-      <c r="BZ181" s="17"/>
-      <c r="CA181" s="17"/>
-      <c r="CB181" s="17"/>
-      <c r="CC181" s="17"/>
-      <c r="CD181" s="17"/>
-      <c r="CE181" s="17"/>
-      <c r="CF181" s="17"/>
-      <c r="CG181" s="17"/>
-      <c r="CH181" s="17"/>
-      <c r="CI181" s="17"/>
-      <c r="CJ181" s="17"/>
-      <c r="CK181" s="17"/>
-      <c r="CL181" s="17"/>
-      <c r="CM181" s="17"/>
-      <c r="CN181" s="17"/>
-      <c r="CO181" s="17"/>
-      <c r="CP181" s="17"/>
-      <c r="CQ181" s="17"/>
-      <c r="CR181" s="17"/>
-      <c r="CS181" s="17"/>
-      <c r="CT181" s="17"/>
-      <c r="CU181" s="17"/>
-      <c r="CV181" s="17"/>
-      <c r="CW181" s="17"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+      <c r="Y181" s="1"/>
+      <c r="Z181" s="1"/>
+      <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
+      <c r="AC181" s="1"/>
+      <c r="AD181" s="1"/>
+      <c r="AE181" s="1"/>
+      <c r="AF181" s="1"/>
+      <c r="AG181" s="1"/>
+      <c r="AH181" s="1"/>
+      <c r="AI181" s="1"/>
+      <c r="AJ181" s="1"/>
+      <c r="AK181" s="1"/>
+      <c r="AL181" s="1"/>
+      <c r="AM181" s="1"/>
+      <c r="AN181" s="1"/>
+      <c r="AO181" s="1"/>
+      <c r="AP181" s="1"/>
+      <c r="AQ181" s="1"/>
+      <c r="AR181" s="1"/>
+      <c r="AS181" s="1"/>
+      <c r="AT181" s="1"/>
+      <c r="AU181" s="1"/>
+      <c r="AV181" s="1"/>
+      <c r="AW181" s="1"/>
+      <c r="AX181" s="1"/>
+      <c r="AY181" s="1"/>
+      <c r="AZ181" s="1"/>
+      <c r="BA181" s="1"/>
+      <c r="BB181" s="1"/>
+      <c r="BC181" s="1"/>
+      <c r="BD181" s="1"/>
+      <c r="BE181" s="1"/>
+      <c r="BF181" s="1"/>
+      <c r="BG181" s="1"/>
+      <c r="BH181" s="1"/>
+      <c r="BI181" s="1"/>
+      <c r="BJ181" s="1"/>
+      <c r="BK181" s="1"/>
+      <c r="BL181" s="1"/>
+      <c r="BM181" s="1"/>
+      <c r="BN181" s="1"/>
+      <c r="BO181" s="1"/>
+      <c r="BP181" s="1"/>
+      <c r="BQ181" s="1"/>
+      <c r="BR181" s="1"/>
+      <c r="BS181" s="1"/>
+      <c r="BT181" s="1"/>
+      <c r="BU181" s="1"/>
+      <c r="BV181" s="1"/>
+      <c r="BW181" s="1"/>
+      <c r="BX181" s="1"/>
+      <c r="BY181" s="1"/>
+      <c r="BZ181" s="1"/>
+      <c r="CA181" s="1"/>
+      <c r="CB181" s="1"/>
+      <c r="CC181" s="1"/>
+      <c r="CD181" s="1"/>
+      <c r="CE181" s="1"/>
+      <c r="CF181" s="1"/>
+      <c r="CG181" s="1"/>
+      <c r="CH181" s="1"/>
+      <c r="CI181" s="1"/>
+      <c r="CJ181" s="1"/>
+      <c r="CK181" s="1"/>
+      <c r="CL181" s="1"/>
+      <c r="CM181" s="1"/>
+      <c r="CN181" s="1"/>
+      <c r="CO181" s="1"/>
+      <c r="CP181" s="1"/>
+      <c r="CQ181" s="1"/>
+      <c r="CR181" s="1"/>
+      <c r="CS181" s="1"/>
+      <c r="CT181" s="1"/>
+      <c r="CU181" s="1"/>
+      <c r="CV181" s="1"/>
+      <c r="CW181" s="1"/>
     </row>
-    <row r="182" spans="1:101" s="21" customFormat="1">
-      <c r="A182" s="17" t="s">
+    <row r="182" spans="1:101">
+      <c r="A182" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B182" s="17">
+      <c r="B182" s="1">
         <v>2050027</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D182" s="17" t="s">
+      <c r="D182" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E182" s="17" t="s">
+      <c r="E182" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F182" s="17">
-        <v>1</v>
-      </c>
-      <c r="G182" s="17">
-        <v>1</v>
-      </c>
-      <c r="H182" s="17">
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" s="1">
+        <v>1</v>
+      </c>
+      <c r="H182" s="1">
         <v>2.4</v>
       </c>
-      <c r="I182" s="23">
-        <v>1</v>
-      </c>
-      <c r="J182" s="18"/>
-      <c r="K182" s="19" t="s">
+      <c r="I182" s="15">
+        <v>1</v>
+      </c>
+      <c r="J182" s="11"/>
+      <c r="K182" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L182" s="17"/>
-      <c r="M182" s="17"/>
-      <c r="N182" s="17"/>
-      <c r="O182" s="17"/>
-      <c r="P182" s="17"/>
-      <c r="Q182" s="17"/>
-      <c r="R182" s="17"/>
-      <c r="S182" s="17"/>
-      <c r="T182" s="17"/>
-      <c r="U182" s="17"/>
-      <c r="V182" s="17"/>
-      <c r="W182" s="17"/>
-      <c r="X182" s="17"/>
-      <c r="Y182" s="17"/>
-      <c r="Z182" s="17"/>
-      <c r="AA182" s="17"/>
-      <c r="AB182" s="17"/>
-      <c r="AC182" s="17"/>
-      <c r="AD182" s="17"/>
-      <c r="AE182" s="17"/>
-      <c r="AF182" s="17"/>
-      <c r="AG182" s="17"/>
-      <c r="AH182" s="17"/>
-      <c r="AI182" s="17"/>
-      <c r="AJ182" s="17"/>
-      <c r="AK182" s="17"/>
-      <c r="AL182" s="17"/>
-      <c r="AM182" s="17"/>
-      <c r="AN182" s="17"/>
-      <c r="AO182" s="17"/>
-      <c r="AP182" s="17"/>
-      <c r="AQ182" s="17"/>
-      <c r="AR182" s="17"/>
-      <c r="AS182" s="17"/>
-      <c r="AT182" s="17"/>
-      <c r="AU182" s="17"/>
-      <c r="AV182" s="17"/>
-      <c r="AW182" s="17"/>
-      <c r="AX182" s="17"/>
-      <c r="AY182" s="17"/>
-      <c r="AZ182" s="17"/>
-      <c r="BA182" s="17"/>
-      <c r="BB182" s="17"/>
-      <c r="BC182" s="17"/>
-      <c r="BD182" s="17"/>
-      <c r="BE182" s="17"/>
-      <c r="BF182" s="17"/>
-      <c r="BG182" s="17"/>
-      <c r="BH182" s="17"/>
-      <c r="BI182" s="17"/>
-      <c r="BJ182" s="17"/>
-      <c r="BK182" s="17"/>
-      <c r="BL182" s="17"/>
-      <c r="BM182" s="17"/>
-      <c r="BN182" s="17"/>
-      <c r="BO182" s="17"/>
-      <c r="BP182" s="17"/>
-      <c r="BQ182" s="17"/>
-      <c r="BR182" s="17"/>
-      <c r="BS182" s="17"/>
-      <c r="BT182" s="17"/>
-      <c r="BU182" s="17"/>
-      <c r="BV182" s="17"/>
-      <c r="BW182" s="17"/>
-      <c r="BX182" s="17"/>
-      <c r="BY182" s="17"/>
-      <c r="BZ182" s="17"/>
-      <c r="CA182" s="17"/>
-      <c r="CB182" s="17"/>
-      <c r="CC182" s="17"/>
-      <c r="CD182" s="17"/>
-      <c r="CE182" s="17"/>
-      <c r="CF182" s="17"/>
-      <c r="CG182" s="17"/>
-      <c r="CH182" s="17"/>
-      <c r="CI182" s="17"/>
-      <c r="CJ182" s="17"/>
-      <c r="CK182" s="17"/>
-      <c r="CL182" s="17"/>
-      <c r="CM182" s="17"/>
-      <c r="CN182" s="17"/>
-      <c r="CO182" s="17"/>
-      <c r="CP182" s="17"/>
-      <c r="CQ182" s="17"/>
-      <c r="CR182" s="17"/>
-      <c r="CS182" s="17"/>
-      <c r="CT182" s="17"/>
-      <c r="CU182" s="17"/>
-      <c r="CV182" s="17"/>
-      <c r="CW182" s="17"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+      <c r="X182" s="1"/>
+      <c r="Y182" s="1"/>
+      <c r="Z182" s="1"/>
+      <c r="AA182" s="1"/>
+      <c r="AB182" s="1"/>
+      <c r="AC182" s="1"/>
+      <c r="AD182" s="1"/>
+      <c r="AE182" s="1"/>
+      <c r="AF182" s="1"/>
+      <c r="AG182" s="1"/>
+      <c r="AH182" s="1"/>
+      <c r="AI182" s="1"/>
+      <c r="AJ182" s="1"/>
+      <c r="AK182" s="1"/>
+      <c r="AL182" s="1"/>
+      <c r="AM182" s="1"/>
+      <c r="AN182" s="1"/>
+      <c r="AO182" s="1"/>
+      <c r="AP182" s="1"/>
+      <c r="AQ182" s="1"/>
+      <c r="AR182" s="1"/>
+      <c r="AS182" s="1"/>
+      <c r="AT182" s="1"/>
+      <c r="AU182" s="1"/>
+      <c r="AV182" s="1"/>
+      <c r="AW182" s="1"/>
+      <c r="AX182" s="1"/>
+      <c r="AY182" s="1"/>
+      <c r="AZ182" s="1"/>
+      <c r="BA182" s="1"/>
+      <c r="BB182" s="1"/>
+      <c r="BC182" s="1"/>
+      <c r="BD182" s="1"/>
+      <c r="BE182" s="1"/>
+      <c r="BF182" s="1"/>
+      <c r="BG182" s="1"/>
+      <c r="BH182" s="1"/>
+      <c r="BI182" s="1"/>
+      <c r="BJ182" s="1"/>
+      <c r="BK182" s="1"/>
+      <c r="BL182" s="1"/>
+      <c r="BM182" s="1"/>
+      <c r="BN182" s="1"/>
+      <c r="BO182" s="1"/>
+      <c r="BP182" s="1"/>
+      <c r="BQ182" s="1"/>
+      <c r="BR182" s="1"/>
+      <c r="BS182" s="1"/>
+      <c r="BT182" s="1"/>
+      <c r="BU182" s="1"/>
+      <c r="BV182" s="1"/>
+      <c r="BW182" s="1"/>
+      <c r="BX182" s="1"/>
+      <c r="BY182" s="1"/>
+      <c r="BZ182" s="1"/>
+      <c r="CA182" s="1"/>
+      <c r="CB182" s="1"/>
+      <c r="CC182" s="1"/>
+      <c r="CD182" s="1"/>
+      <c r="CE182" s="1"/>
+      <c r="CF182" s="1"/>
+      <c r="CG182" s="1"/>
+      <c r="CH182" s="1"/>
+      <c r="CI182" s="1"/>
+      <c r="CJ182" s="1"/>
+      <c r="CK182" s="1"/>
+      <c r="CL182" s="1"/>
+      <c r="CM182" s="1"/>
+      <c r="CN182" s="1"/>
+      <c r="CO182" s="1"/>
+      <c r="CP182" s="1"/>
+      <c r="CQ182" s="1"/>
+      <c r="CR182" s="1"/>
+      <c r="CS182" s="1"/>
+      <c r="CT182" s="1"/>
+      <c r="CU182" s="1"/>
+      <c r="CV182" s="1"/>
+      <c r="CW182" s="1"/>
     </row>
-    <row r="183" spans="1:101" s="21" customFormat="1">
-      <c r="A183" s="17" t="s">
+    <row r="183" spans="1:101">
+      <c r="A183" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B183" s="17">
+      <c r="B183" s="1">
         <v>2050027</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="17" t="s">
+      <c r="D183" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E183" s="17" t="s">
+      <c r="E183" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F183" s="17">
+      <c r="F183" s="1">
         <v>2</v>
       </c>
-      <c r="G183" s="17">
-        <v>1</v>
-      </c>
-      <c r="H183" s="17">
+      <c r="G183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H183" s="1">
         <v>2.4</v>
       </c>
-      <c r="I183" s="23">
-        <v>1</v>
-      </c>
-      <c r="J183" s="18"/>
-      <c r="K183" s="19" t="s">
+      <c r="I183" s="15">
+        <v>1</v>
+      </c>
+      <c r="J183" s="11"/>
+      <c r="K183" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
-      <c r="N183" s="17"/>
-      <c r="O183" s="17"/>
-      <c r="P183" s="17"/>
-      <c r="Q183" s="17"/>
-      <c r="R183" s="17"/>
-      <c r="S183" s="17"/>
-      <c r="T183" s="17"/>
-      <c r="U183" s="17"/>
-      <c r="V183" s="17"/>
-      <c r="W183" s="17"/>
-      <c r="X183" s="17"/>
-      <c r="Y183" s="17"/>
-      <c r="Z183" s="17"/>
-      <c r="AA183" s="17"/>
-      <c r="AB183" s="17"/>
-      <c r="AC183" s="17"/>
-      <c r="AD183" s="17"/>
-      <c r="AE183" s="17"/>
-      <c r="AF183" s="17"/>
-      <c r="AG183" s="17"/>
-      <c r="AH183" s="17"/>
-      <c r="AI183" s="17"/>
-      <c r="AJ183" s="17"/>
-      <c r="AK183" s="17"/>
-      <c r="AL183" s="17"/>
-      <c r="AM183" s="17"/>
-      <c r="AN183" s="17"/>
-      <c r="AO183" s="17"/>
-      <c r="AP183" s="17"/>
-      <c r="AQ183" s="17"/>
-      <c r="AR183" s="17"/>
-      <c r="AS183" s="17"/>
-      <c r="AT183" s="17"/>
-      <c r="AU183" s="17"/>
-      <c r="AV183" s="17"/>
-      <c r="AW183" s="17"/>
-      <c r="AX183" s="17"/>
-      <c r="AY183" s="17"/>
-      <c r="AZ183" s="17"/>
-      <c r="BA183" s="17"/>
-      <c r="BB183" s="17"/>
-      <c r="BC183" s="17"/>
-      <c r="BD183" s="17"/>
-      <c r="BE183" s="17"/>
-      <c r="BF183" s="17"/>
-      <c r="BG183" s="17"/>
-      <c r="BH183" s="17"/>
-      <c r="BI183" s="17"/>
-      <c r="BJ183" s="17"/>
-      <c r="BK183" s="17"/>
-      <c r="BL183" s="17"/>
-      <c r="BM183" s="17"/>
-      <c r="BN183" s="17"/>
-      <c r="BO183" s="17"/>
-      <c r="BP183" s="17"/>
-      <c r="BQ183" s="17"/>
-      <c r="BR183" s="17"/>
-      <c r="BS183" s="17"/>
-      <c r="BT183" s="17"/>
-      <c r="BU183" s="17"/>
-      <c r="BV183" s="17"/>
-      <c r="BW183" s="17"/>
-      <c r="BX183" s="17"/>
-      <c r="BY183" s="17"/>
-      <c r="BZ183" s="17"/>
-      <c r="CA183" s="17"/>
-      <c r="CB183" s="17"/>
-      <c r="CC183" s="17"/>
-      <c r="CD183" s="17"/>
-      <c r="CE183" s="17"/>
-      <c r="CF183" s="17"/>
-      <c r="CG183" s="17"/>
-      <c r="CH183" s="17"/>
-      <c r="CI183" s="17"/>
-      <c r="CJ183" s="17"/>
-      <c r="CK183" s="17"/>
-      <c r="CL183" s="17"/>
-      <c r="CM183" s="17"/>
-      <c r="CN183" s="17"/>
-      <c r="CO183" s="17"/>
-      <c r="CP183" s="17"/>
-      <c r="CQ183" s="17"/>
-      <c r="CR183" s="17"/>
-      <c r="CS183" s="17"/>
-      <c r="CT183" s="17"/>
-      <c r="CU183" s="17"/>
-      <c r="CV183" s="17"/>
-      <c r="CW183" s="17"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
+      <c r="Y183" s="1"/>
+      <c r="Z183" s="1"/>
+      <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
+      <c r="AC183" s="1"/>
+      <c r="AD183" s="1"/>
+      <c r="AE183" s="1"/>
+      <c r="AF183" s="1"/>
+      <c r="AG183" s="1"/>
+      <c r="AH183" s="1"/>
+      <c r="AI183" s="1"/>
+      <c r="AJ183" s="1"/>
+      <c r="AK183" s="1"/>
+      <c r="AL183" s="1"/>
+      <c r="AM183" s="1"/>
+      <c r="AN183" s="1"/>
+      <c r="AO183" s="1"/>
+      <c r="AP183" s="1"/>
+      <c r="AQ183" s="1"/>
+      <c r="AR183" s="1"/>
+      <c r="AS183" s="1"/>
+      <c r="AT183" s="1"/>
+      <c r="AU183" s="1"/>
+      <c r="AV183" s="1"/>
+      <c r="AW183" s="1"/>
+      <c r="AX183" s="1"/>
+      <c r="AY183" s="1"/>
+      <c r="AZ183" s="1"/>
+      <c r="BA183" s="1"/>
+      <c r="BB183" s="1"/>
+      <c r="BC183" s="1"/>
+      <c r="BD183" s="1"/>
+      <c r="BE183" s="1"/>
+      <c r="BF183" s="1"/>
+      <c r="BG183" s="1"/>
+      <c r="BH183" s="1"/>
+      <c r="BI183" s="1"/>
+      <c r="BJ183" s="1"/>
+      <c r="BK183" s="1"/>
+      <c r="BL183" s="1"/>
+      <c r="BM183" s="1"/>
+      <c r="BN183" s="1"/>
+      <c r="BO183" s="1"/>
+      <c r="BP183" s="1"/>
+      <c r="BQ183" s="1"/>
+      <c r="BR183" s="1"/>
+      <c r="BS183" s="1"/>
+      <c r="BT183" s="1"/>
+      <c r="BU183" s="1"/>
+      <c r="BV183" s="1"/>
+      <c r="BW183" s="1"/>
+      <c r="BX183" s="1"/>
+      <c r="BY183" s="1"/>
+      <c r="BZ183" s="1"/>
+      <c r="CA183" s="1"/>
+      <c r="CB183" s="1"/>
+      <c r="CC183" s="1"/>
+      <c r="CD183" s="1"/>
+      <c r="CE183" s="1"/>
+      <c r="CF183" s="1"/>
+      <c r="CG183" s="1"/>
+      <c r="CH183" s="1"/>
+      <c r="CI183" s="1"/>
+      <c r="CJ183" s="1"/>
+      <c r="CK183" s="1"/>
+      <c r="CL183" s="1"/>
+      <c r="CM183" s="1"/>
+      <c r="CN183" s="1"/>
+      <c r="CO183" s="1"/>
+      <c r="CP183" s="1"/>
+      <c r="CQ183" s="1"/>
+      <c r="CR183" s="1"/>
+      <c r="CS183" s="1"/>
+      <c r="CT183" s="1"/>
+      <c r="CU183" s="1"/>
+      <c r="CV183" s="1"/>
+      <c r="CW183" s="1"/>
     </row>
-    <row r="184" spans="1:101" s="21" customFormat="1">
-      <c r="A184" s="17" t="s">
+    <row r="184" spans="1:101">
+      <c r="A184" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B184" s="17">
+      <c r="B184" s="1">
         <v>2050027</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D184" s="17" t="s">
+      <c r="D184" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E184" s="17" t="s">
+      <c r="E184" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F184" s="17">
+      <c r="F184" s="1">
         <v>3</v>
       </c>
-      <c r="G184" s="17">
-        <v>1</v>
-      </c>
-      <c r="H184" s="17">
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
+      <c r="H184" s="1">
         <v>2.4</v>
       </c>
-      <c r="I184" s="23">
-        <v>1</v>
-      </c>
-      <c r="J184" s="18"/>
-      <c r="K184" s="19" t="s">
+      <c r="I184" s="15">
+        <v>1</v>
+      </c>
+      <c r="J184" s="11"/>
+      <c r="K184" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L184" s="17"/>
-      <c r="M184" s="17"/>
-      <c r="N184" s="17"/>
-      <c r="O184" s="17"/>
-      <c r="P184" s="17"/>
-      <c r="Q184" s="17"/>
-      <c r="R184" s="17"/>
-      <c r="S184" s="17"/>
-      <c r="T184" s="17"/>
-      <c r="U184" s="17"/>
-      <c r="V184" s="17"/>
-      <c r="W184" s="17"/>
-      <c r="X184" s="17"/>
-      <c r="Y184" s="17"/>
-      <c r="Z184" s="17"/>
-      <c r="AA184" s="17"/>
-      <c r="AB184" s="17"/>
-      <c r="AC184" s="17"/>
-      <c r="AD184" s="17"/>
-      <c r="AE184" s="17"/>
-      <c r="AF184" s="17"/>
-      <c r="AG184" s="17"/>
-      <c r="AH184" s="17"/>
-      <c r="AI184" s="17"/>
-      <c r="AJ184" s="17"/>
-      <c r="AK184" s="17"/>
-      <c r="AL184" s="17"/>
-      <c r="AM184" s="17"/>
-      <c r="AN184" s="17"/>
-      <c r="AO184" s="17"/>
-      <c r="AP184" s="17"/>
-      <c r="AQ184" s="17"/>
-      <c r="AR184" s="17"/>
-      <c r="AS184" s="17"/>
-      <c r="AT184" s="17"/>
-      <c r="AU184" s="17"/>
-      <c r="AV184" s="17"/>
-      <c r="AW184" s="17"/>
-      <c r="AX184" s="17"/>
-      <c r="AY184" s="17"/>
-      <c r="AZ184" s="17"/>
-      <c r="BA184" s="17"/>
-      <c r="BB184" s="17"/>
-      <c r="BC184" s="17"/>
-      <c r="BD184" s="17"/>
-      <c r="BE184" s="17"/>
-      <c r="BF184" s="17"/>
-      <c r="BG184" s="17"/>
-      <c r="BH184" s="17"/>
-      <c r="BI184" s="17"/>
-      <c r="BJ184" s="17"/>
-      <c r="BK184" s="17"/>
-      <c r="BL184" s="17"/>
-      <c r="BM184" s="17"/>
-      <c r="BN184" s="17"/>
-      <c r="BO184" s="17"/>
-      <c r="BP184" s="17"/>
-      <c r="BQ184" s="17"/>
-      <c r="BR184" s="17"/>
-      <c r="BS184" s="17"/>
-      <c r="BT184" s="17"/>
-      <c r="BU184" s="17"/>
-      <c r="BV184" s="17"/>
-      <c r="BW184" s="17"/>
-      <c r="BX184" s="17"/>
-      <c r="BY184" s="17"/>
-      <c r="BZ184" s="17"/>
-      <c r="CA184" s="17"/>
-      <c r="CB184" s="17"/>
-      <c r="CC184" s="17"/>
-      <c r="CD184" s="17"/>
-      <c r="CE184" s="17"/>
-      <c r="CF184" s="17"/>
-      <c r="CG184" s="17"/>
-      <c r="CH184" s="17"/>
-      <c r="CI184" s="17"/>
-      <c r="CJ184" s="17"/>
-      <c r="CK184" s="17"/>
-      <c r="CL184" s="17"/>
-      <c r="CM184" s="17"/>
-      <c r="CN184" s="17"/>
-      <c r="CO184" s="17"/>
-      <c r="CP184" s="17"/>
-      <c r="CQ184" s="17"/>
-      <c r="CR184" s="17"/>
-      <c r="CS184" s="17"/>
-      <c r="CT184" s="17"/>
-      <c r="CU184" s="17"/>
-      <c r="CV184" s="17"/>
-      <c r="CW184" s="17"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
+      <c r="Y184" s="1"/>
+      <c r="Z184" s="1"/>
+      <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
+      <c r="AC184" s="1"/>
+      <c r="AD184" s="1"/>
+      <c r="AE184" s="1"/>
+      <c r="AF184" s="1"/>
+      <c r="AG184" s="1"/>
+      <c r="AH184" s="1"/>
+      <c r="AI184" s="1"/>
+      <c r="AJ184" s="1"/>
+      <c r="AK184" s="1"/>
+      <c r="AL184" s="1"/>
+      <c r="AM184" s="1"/>
+      <c r="AN184" s="1"/>
+      <c r="AO184" s="1"/>
+      <c r="AP184" s="1"/>
+      <c r="AQ184" s="1"/>
+      <c r="AR184" s="1"/>
+      <c r="AS184" s="1"/>
+      <c r="AT184" s="1"/>
+      <c r="AU184" s="1"/>
+      <c r="AV184" s="1"/>
+      <c r="AW184" s="1"/>
+      <c r="AX184" s="1"/>
+      <c r="AY184" s="1"/>
+      <c r="AZ184" s="1"/>
+      <c r="BA184" s="1"/>
+      <c r="BB184" s="1"/>
+      <c r="BC184" s="1"/>
+      <c r="BD184" s="1"/>
+      <c r="BE184" s="1"/>
+      <c r="BF184" s="1"/>
+      <c r="BG184" s="1"/>
+      <c r="BH184" s="1"/>
+      <c r="BI184" s="1"/>
+      <c r="BJ184" s="1"/>
+      <c r="BK184" s="1"/>
+      <c r="BL184" s="1"/>
+      <c r="BM184" s="1"/>
+      <c r="BN184" s="1"/>
+      <c r="BO184" s="1"/>
+      <c r="BP184" s="1"/>
+      <c r="BQ184" s="1"/>
+      <c r="BR184" s="1"/>
+      <c r="BS184" s="1"/>
+      <c r="BT184" s="1"/>
+      <c r="BU184" s="1"/>
+      <c r="BV184" s="1"/>
+      <c r="BW184" s="1"/>
+      <c r="BX184" s="1"/>
+      <c r="BY184" s="1"/>
+      <c r="BZ184" s="1"/>
+      <c r="CA184" s="1"/>
+      <c r="CB184" s="1"/>
+      <c r="CC184" s="1"/>
+      <c r="CD184" s="1"/>
+      <c r="CE184" s="1"/>
+      <c r="CF184" s="1"/>
+      <c r="CG184" s="1"/>
+      <c r="CH184" s="1"/>
+      <c r="CI184" s="1"/>
+      <c r="CJ184" s="1"/>
+      <c r="CK184" s="1"/>
+      <c r="CL184" s="1"/>
+      <c r="CM184" s="1"/>
+      <c r="CN184" s="1"/>
+      <c r="CO184" s="1"/>
+      <c r="CP184" s="1"/>
+      <c r="CQ184" s="1"/>
+      <c r="CR184" s="1"/>
+      <c r="CS184" s="1"/>
+      <c r="CT184" s="1"/>
+      <c r="CU184" s="1"/>
+      <c r="CV184" s="1"/>
+      <c r="CW184" s="1"/>
     </row>
-    <row r="185" spans="1:101" s="21" customFormat="1">
-      <c r="A185" s="17" t="s">
+    <row r="185" spans="1:101">
+      <c r="A185" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B185" s="17">
+      <c r="B185" s="1">
         <v>2050027</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D185" s="17" t="s">
+      <c r="D185" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E185" s="17" t="s">
+      <c r="E185" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F185" s="17">
+      <c r="F185" s="1">
         <v>4</v>
       </c>
-      <c r="G185" s="17">
-        <v>1</v>
-      </c>
-      <c r="H185" s="17">
+      <c r="G185" s="1">
+        <v>1</v>
+      </c>
+      <c r="H185" s="1">
         <v>2.4</v>
       </c>
-      <c r="I185" s="23">
-        <v>1</v>
-      </c>
-      <c r="J185" s="18"/>
-      <c r="K185" s="19" t="s">
+      <c r="I185" s="15">
+        <v>1</v>
+      </c>
+      <c r="J185" s="11"/>
+      <c r="K185" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L185" s="17"/>
-      <c r="M185" s="17"/>
-      <c r="N185" s="17"/>
-      <c r="O185" s="17"/>
-      <c r="P185" s="17"/>
-      <c r="Q185" s="17"/>
-      <c r="R185" s="17"/>
-      <c r="S185" s="17"/>
-      <c r="T185" s="17"/>
-      <c r="U185" s="17"/>
-      <c r="V185" s="17"/>
-      <c r="W185" s="17"/>
-      <c r="X185" s="17"/>
-      <c r="Y185" s="17"/>
-      <c r="Z185" s="17"/>
-      <c r="AA185" s="17"/>
-      <c r="AB185" s="17"/>
-      <c r="AC185" s="17"/>
-      <c r="AD185" s="17"/>
-      <c r="AE185" s="17"/>
-      <c r="AF185" s="17"/>
-      <c r="AG185" s="17"/>
-      <c r="AH185" s="17"/>
-      <c r="AI185" s="17"/>
-      <c r="AJ185" s="17"/>
-      <c r="AK185" s="17"/>
-      <c r="AL185" s="17"/>
-      <c r="AM185" s="17"/>
-      <c r="AN185" s="17"/>
-      <c r="AO185" s="17"/>
-      <c r="AP185" s="17"/>
-      <c r="AQ185" s="17"/>
-      <c r="AR185" s="17"/>
-      <c r="AS185" s="17"/>
-      <c r="AT185" s="17"/>
-      <c r="AU185" s="17"/>
-      <c r="AV185" s="17"/>
-      <c r="AW185" s="17"/>
-      <c r="AX185" s="17"/>
-      <c r="AY185" s="17"/>
-      <c r="AZ185" s="17"/>
-      <c r="BA185" s="17"/>
-      <c r="BB185" s="17"/>
-      <c r="BC185" s="17"/>
-      <c r="BD185" s="17"/>
-      <c r="BE185" s="17"/>
-      <c r="BF185" s="17"/>
-      <c r="BG185" s="17"/>
-      <c r="BH185" s="17"/>
-      <c r="BI185" s="17"/>
-      <c r="BJ185" s="17"/>
-      <c r="BK185" s="17"/>
-      <c r="BL185" s="17"/>
-      <c r="BM185" s="17"/>
-      <c r="BN185" s="17"/>
-      <c r="BO185" s="17"/>
-      <c r="BP185" s="17"/>
-      <c r="BQ185" s="17"/>
-      <c r="BR185" s="17"/>
-      <c r="BS185" s="17"/>
-      <c r="BT185" s="17"/>
-      <c r="BU185" s="17"/>
-      <c r="BV185" s="17"/>
-      <c r="BW185" s="17"/>
-      <c r="BX185" s="17"/>
-      <c r="BY185" s="17"/>
-      <c r="BZ185" s="17"/>
-      <c r="CA185" s="17"/>
-      <c r="CB185" s="17"/>
-      <c r="CC185" s="17"/>
-      <c r="CD185" s="17"/>
-      <c r="CE185" s="17"/>
-      <c r="CF185" s="17"/>
-      <c r="CG185" s="17"/>
-      <c r="CH185" s="17"/>
-      <c r="CI185" s="17"/>
-      <c r="CJ185" s="17"/>
-      <c r="CK185" s="17"/>
-      <c r="CL185" s="17"/>
-      <c r="CM185" s="17"/>
-      <c r="CN185" s="17"/>
-      <c r="CO185" s="17"/>
-      <c r="CP185" s="17"/>
-      <c r="CQ185" s="17"/>
-      <c r="CR185" s="17"/>
-      <c r="CS185" s="17"/>
-      <c r="CT185" s="17"/>
-      <c r="CU185" s="17"/>
-      <c r="CV185" s="17"/>
-      <c r="CW185" s="17"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
+      <c r="Y185" s="1"/>
+      <c r="Z185" s="1"/>
+      <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
+      <c r="AC185" s="1"/>
+      <c r="AD185" s="1"/>
+      <c r="AE185" s="1"/>
+      <c r="AF185" s="1"/>
+      <c r="AG185" s="1"/>
+      <c r="AH185" s="1"/>
+      <c r="AI185" s="1"/>
+      <c r="AJ185" s="1"/>
+      <c r="AK185" s="1"/>
+      <c r="AL185" s="1"/>
+      <c r="AM185" s="1"/>
+      <c r="AN185" s="1"/>
+      <c r="AO185" s="1"/>
+      <c r="AP185" s="1"/>
+      <c r="AQ185" s="1"/>
+      <c r="AR185" s="1"/>
+      <c r="AS185" s="1"/>
+      <c r="AT185" s="1"/>
+      <c r="AU185" s="1"/>
+      <c r="AV185" s="1"/>
+      <c r="AW185" s="1"/>
+      <c r="AX185" s="1"/>
+      <c r="AY185" s="1"/>
+      <c r="AZ185" s="1"/>
+      <c r="BA185" s="1"/>
+      <c r="BB185" s="1"/>
+      <c r="BC185" s="1"/>
+      <c r="BD185" s="1"/>
+      <c r="BE185" s="1"/>
+      <c r="BF185" s="1"/>
+      <c r="BG185" s="1"/>
+      <c r="BH185" s="1"/>
+      <c r="BI185" s="1"/>
+      <c r="BJ185" s="1"/>
+      <c r="BK185" s="1"/>
+      <c r="BL185" s="1"/>
+      <c r="BM185" s="1"/>
+      <c r="BN185" s="1"/>
+      <c r="BO185" s="1"/>
+      <c r="BP185" s="1"/>
+      <c r="BQ185" s="1"/>
+      <c r="BR185" s="1"/>
+      <c r="BS185" s="1"/>
+      <c r="BT185" s="1"/>
+      <c r="BU185" s="1"/>
+      <c r="BV185" s="1"/>
+      <c r="BW185" s="1"/>
+      <c r="BX185" s="1"/>
+      <c r="BY185" s="1"/>
+      <c r="BZ185" s="1"/>
+      <c r="CA185" s="1"/>
+      <c r="CB185" s="1"/>
+      <c r="CC185" s="1"/>
+      <c r="CD185" s="1"/>
+      <c r="CE185" s="1"/>
+      <c r="CF185" s="1"/>
+      <c r="CG185" s="1"/>
+      <c r="CH185" s="1"/>
+      <c r="CI185" s="1"/>
+      <c r="CJ185" s="1"/>
+      <c r="CK185" s="1"/>
+      <c r="CL185" s="1"/>
+      <c r="CM185" s="1"/>
+      <c r="CN185" s="1"/>
+      <c r="CO185" s="1"/>
+      <c r="CP185" s="1"/>
+      <c r="CQ185" s="1"/>
+      <c r="CR185" s="1"/>
+      <c r="CS185" s="1"/>
+      <c r="CT185" s="1"/>
+      <c r="CU185" s="1"/>
+      <c r="CV185" s="1"/>
+      <c r="CW185" s="1"/>
     </row>
     <row r="186" spans="1:101">
       <c r="A186" s="1" t="s">
@@ -34005,1612 +34008,1612 @@
       <c r="CV254" s="1"/>
       <c r="CW254" s="1"/>
     </row>
-    <row r="255" spans="1:101" s="21" customFormat="1">
-      <c r="A255" s="17" t="s">
+    <row r="255" spans="1:101">
+      <c r="A255" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B255" s="17">
+      <c r="B255" s="1">
         <v>2050048</v>
       </c>
-      <c r="C255" s="17" t="s">
+      <c r="C255" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D255" s="17" t="s">
+      <c r="D255" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E255" s="17" t="s">
+      <c r="E255" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F255" s="17">
-        <v>1</v>
-      </c>
-      <c r="G255" s="17">
-        <v>1</v>
-      </c>
-      <c r="H255" s="17">
+      <c r="F255" s="1">
+        <v>1</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1</v>
+      </c>
+      <c r="H255" s="1">
         <v>3.6</v>
       </c>
-      <c r="I255" s="23">
-        <v>1</v>
-      </c>
-      <c r="J255" s="19" t="s">
+      <c r="I255" s="15">
+        <v>1</v>
+      </c>
+      <c r="J255" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K255" s="19" t="s">
+      <c r="K255" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L255" s="17"/>
-      <c r="M255" s="17"/>
-      <c r="N255" s="17"/>
-      <c r="O255" s="17"/>
-      <c r="P255" s="17"/>
-      <c r="Q255" s="17"/>
-      <c r="R255" s="17"/>
-      <c r="S255" s="17"/>
-      <c r="T255" s="17"/>
-      <c r="U255" s="17"/>
-      <c r="V255" s="17"/>
-      <c r="W255" s="17"/>
-      <c r="X255" s="17"/>
-      <c r="Y255" s="17"/>
-      <c r="Z255" s="17"/>
-      <c r="AA255" s="17"/>
-      <c r="AB255" s="17"/>
-      <c r="AC255" s="17"/>
-      <c r="AD255" s="17"/>
-      <c r="AE255" s="17"/>
-      <c r="AF255" s="17"/>
-      <c r="AG255" s="17"/>
-      <c r="AH255" s="17"/>
-      <c r="AI255" s="17"/>
-      <c r="AJ255" s="17"/>
-      <c r="AK255" s="17"/>
-      <c r="AL255" s="17"/>
-      <c r="AM255" s="17"/>
-      <c r="AN255" s="17"/>
-      <c r="AO255" s="17"/>
-      <c r="AP255" s="17"/>
-      <c r="AQ255" s="17"/>
-      <c r="AR255" s="17"/>
-      <c r="AS255" s="17"/>
-      <c r="AT255" s="17"/>
-      <c r="AU255" s="17"/>
-      <c r="AV255" s="17"/>
-      <c r="AW255" s="17"/>
-      <c r="AX255" s="17"/>
-      <c r="AY255" s="17"/>
-      <c r="AZ255" s="17"/>
-      <c r="BA255" s="17"/>
-      <c r="BB255" s="17"/>
-      <c r="BC255" s="17"/>
-      <c r="BD255" s="17"/>
-      <c r="BE255" s="17"/>
-      <c r="BF255" s="17"/>
-      <c r="BG255" s="17"/>
-      <c r="BH255" s="17"/>
-      <c r="BI255" s="17"/>
-      <c r="BJ255" s="17"/>
-      <c r="BK255" s="17"/>
-      <c r="BL255" s="17"/>
-      <c r="BM255" s="17"/>
-      <c r="BN255" s="17"/>
-      <c r="BO255" s="17"/>
-      <c r="BP255" s="17"/>
-      <c r="BQ255" s="17"/>
-      <c r="BR255" s="17"/>
-      <c r="BS255" s="17"/>
-      <c r="BT255" s="17"/>
-      <c r="BU255" s="17"/>
-      <c r="BV255" s="17"/>
-      <c r="BW255" s="17"/>
-      <c r="BX255" s="17"/>
-      <c r="BY255" s="17"/>
-      <c r="BZ255" s="17"/>
-      <c r="CA255" s="17"/>
-      <c r="CB255" s="17"/>
-      <c r="CC255" s="17"/>
-      <c r="CD255" s="17"/>
-      <c r="CE255" s="17"/>
-      <c r="CF255" s="17"/>
-      <c r="CG255" s="17"/>
-      <c r="CH255" s="17"/>
-      <c r="CI255" s="17"/>
-      <c r="CJ255" s="17"/>
-      <c r="CK255" s="17"/>
-      <c r="CL255" s="17"/>
-      <c r="CM255" s="17"/>
-      <c r="CN255" s="17"/>
-      <c r="CO255" s="17"/>
-      <c r="CP255" s="17"/>
-      <c r="CQ255" s="17"/>
-      <c r="CR255" s="17"/>
-      <c r="CS255" s="17"/>
-      <c r="CT255" s="17"/>
-      <c r="CU255" s="17"/>
-      <c r="CV255" s="17"/>
-      <c r="CW255" s="17"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
+      <c r="W255" s="1"/>
+      <c r="X255" s="1"/>
+      <c r="Y255" s="1"/>
+      <c r="Z255" s="1"/>
+      <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
+      <c r="AC255" s="1"/>
+      <c r="AD255" s="1"/>
+      <c r="AE255" s="1"/>
+      <c r="AF255" s="1"/>
+      <c r="AG255" s="1"/>
+      <c r="AH255" s="1"/>
+      <c r="AI255" s="1"/>
+      <c r="AJ255" s="1"/>
+      <c r="AK255" s="1"/>
+      <c r="AL255" s="1"/>
+      <c r="AM255" s="1"/>
+      <c r="AN255" s="1"/>
+      <c r="AO255" s="1"/>
+      <c r="AP255" s="1"/>
+      <c r="AQ255" s="1"/>
+      <c r="AR255" s="1"/>
+      <c r="AS255" s="1"/>
+      <c r="AT255" s="1"/>
+      <c r="AU255" s="1"/>
+      <c r="AV255" s="1"/>
+      <c r="AW255" s="1"/>
+      <c r="AX255" s="1"/>
+      <c r="AY255" s="1"/>
+      <c r="AZ255" s="1"/>
+      <c r="BA255" s="1"/>
+      <c r="BB255" s="1"/>
+      <c r="BC255" s="1"/>
+      <c r="BD255" s="1"/>
+      <c r="BE255" s="1"/>
+      <c r="BF255" s="1"/>
+      <c r="BG255" s="1"/>
+      <c r="BH255" s="1"/>
+      <c r="BI255" s="1"/>
+      <c r="BJ255" s="1"/>
+      <c r="BK255" s="1"/>
+      <c r="BL255" s="1"/>
+      <c r="BM255" s="1"/>
+      <c r="BN255" s="1"/>
+      <c r="BO255" s="1"/>
+      <c r="BP255" s="1"/>
+      <c r="BQ255" s="1"/>
+      <c r="BR255" s="1"/>
+      <c r="BS255" s="1"/>
+      <c r="BT255" s="1"/>
+      <c r="BU255" s="1"/>
+      <c r="BV255" s="1"/>
+      <c r="BW255" s="1"/>
+      <c r="BX255" s="1"/>
+      <c r="BY255" s="1"/>
+      <c r="BZ255" s="1"/>
+      <c r="CA255" s="1"/>
+      <c r="CB255" s="1"/>
+      <c r="CC255" s="1"/>
+      <c r="CD255" s="1"/>
+      <c r="CE255" s="1"/>
+      <c r="CF255" s="1"/>
+      <c r="CG255" s="1"/>
+      <c r="CH255" s="1"/>
+      <c r="CI255" s="1"/>
+      <c r="CJ255" s="1"/>
+      <c r="CK255" s="1"/>
+      <c r="CL255" s="1"/>
+      <c r="CM255" s="1"/>
+      <c r="CN255" s="1"/>
+      <c r="CO255" s="1"/>
+      <c r="CP255" s="1"/>
+      <c r="CQ255" s="1"/>
+      <c r="CR255" s="1"/>
+      <c r="CS255" s="1"/>
+      <c r="CT255" s="1"/>
+      <c r="CU255" s="1"/>
+      <c r="CV255" s="1"/>
+      <c r="CW255" s="1"/>
     </row>
-    <row r="256" spans="1:101" s="21" customFormat="1">
-      <c r="A256" s="17" t="s">
+    <row r="256" spans="1:101">
+      <c r="A256" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B256" s="17">
+      <c r="B256" s="1">
         <v>2050048</v>
       </c>
-      <c r="C256" s="17" t="s">
+      <c r="C256" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D256" s="17" t="s">
+      <c r="D256" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E256" s="17" t="s">
+      <c r="E256" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F256" s="17">
+      <c r="F256" s="1">
         <v>2</v>
       </c>
-      <c r="G256" s="17">
-        <v>1</v>
-      </c>
-      <c r="H256" s="17">
+      <c r="G256" s="1">
+        <v>1</v>
+      </c>
+      <c r="H256" s="1">
         <v>3.6</v>
       </c>
-      <c r="I256" s="23">
-        <v>1</v>
-      </c>
-      <c r="J256" s="19" t="s">
+      <c r="I256" s="15">
+        <v>1</v>
+      </c>
+      <c r="J256" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K256" s="19" t="s">
+      <c r="K256" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L256" s="17"/>
-      <c r="M256" s="17"/>
-      <c r="N256" s="17"/>
-      <c r="O256" s="17"/>
-      <c r="P256" s="17"/>
-      <c r="Q256" s="17"/>
-      <c r="R256" s="17"/>
-      <c r="S256" s="17"/>
-      <c r="T256" s="17"/>
-      <c r="U256" s="17"/>
-      <c r="V256" s="17"/>
-      <c r="W256" s="17"/>
-      <c r="X256" s="17"/>
-      <c r="Y256" s="17"/>
-      <c r="Z256" s="17"/>
-      <c r="AA256" s="17"/>
-      <c r="AB256" s="17"/>
-      <c r="AC256" s="17"/>
-      <c r="AD256" s="17"/>
-      <c r="AE256" s="17"/>
-      <c r="AF256" s="17"/>
-      <c r="AG256" s="17"/>
-      <c r="AH256" s="17"/>
-      <c r="AI256" s="17"/>
-      <c r="AJ256" s="17"/>
-      <c r="AK256" s="17"/>
-      <c r="AL256" s="17"/>
-      <c r="AM256" s="17"/>
-      <c r="AN256" s="17"/>
-      <c r="AO256" s="17"/>
-      <c r="AP256" s="17"/>
-      <c r="AQ256" s="17"/>
-      <c r="AR256" s="17"/>
-      <c r="AS256" s="17"/>
-      <c r="AT256" s="17"/>
-      <c r="AU256" s="17"/>
-      <c r="AV256" s="17"/>
-      <c r="AW256" s="17"/>
-      <c r="AX256" s="17"/>
-      <c r="AY256" s="17"/>
-      <c r="AZ256" s="17"/>
-      <c r="BA256" s="17"/>
-      <c r="BB256" s="17"/>
-      <c r="BC256" s="17"/>
-      <c r="BD256" s="17"/>
-      <c r="BE256" s="17"/>
-      <c r="BF256" s="17"/>
-      <c r="BG256" s="17"/>
-      <c r="BH256" s="17"/>
-      <c r="BI256" s="17"/>
-      <c r="BJ256" s="17"/>
-      <c r="BK256" s="17"/>
-      <c r="BL256" s="17"/>
-      <c r="BM256" s="20"/>
-      <c r="BN256" s="17"/>
-      <c r="BO256" s="17"/>
-      <c r="BP256" s="17"/>
-      <c r="BQ256" s="17"/>
-      <c r="BR256" s="17"/>
-      <c r="BS256" s="17"/>
-      <c r="BT256" s="17"/>
-      <c r="BU256" s="17"/>
-      <c r="BV256" s="17"/>
-      <c r="BW256" s="17"/>
-      <c r="BX256" s="17"/>
-      <c r="BY256" s="17"/>
-      <c r="BZ256" s="17"/>
-      <c r="CA256" s="17"/>
-      <c r="CB256" s="17"/>
-      <c r="CC256" s="17"/>
-      <c r="CD256" s="17"/>
-      <c r="CE256" s="17"/>
-      <c r="CF256" s="17"/>
-      <c r="CG256" s="17"/>
-      <c r="CH256" s="17"/>
-      <c r="CI256" s="17"/>
-      <c r="CJ256" s="17"/>
-      <c r="CK256" s="17"/>
-      <c r="CL256" s="17"/>
-      <c r="CM256" s="17"/>
-      <c r="CN256" s="17"/>
-      <c r="CO256" s="17"/>
-      <c r="CP256" s="17"/>
-      <c r="CQ256" s="17"/>
-      <c r="CR256" s="17"/>
-      <c r="CS256" s="17"/>
-      <c r="CT256" s="17"/>
-      <c r="CU256" s="17"/>
-      <c r="CV256" s="17"/>
-      <c r="CW256" s="17"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
+      <c r="W256" s="1"/>
+      <c r="X256" s="1"/>
+      <c r="Y256" s="1"/>
+      <c r="Z256" s="1"/>
+      <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
+      <c r="AC256" s="1"/>
+      <c r="AD256" s="1"/>
+      <c r="AE256" s="1"/>
+      <c r="AF256" s="1"/>
+      <c r="AG256" s="1"/>
+      <c r="AH256" s="1"/>
+      <c r="AI256" s="1"/>
+      <c r="AJ256" s="1"/>
+      <c r="AK256" s="1"/>
+      <c r="AL256" s="1"/>
+      <c r="AM256" s="1"/>
+      <c r="AN256" s="1"/>
+      <c r="AO256" s="1"/>
+      <c r="AP256" s="1"/>
+      <c r="AQ256" s="1"/>
+      <c r="AR256" s="1"/>
+      <c r="AS256" s="1"/>
+      <c r="AT256" s="1"/>
+      <c r="AU256" s="1"/>
+      <c r="AV256" s="1"/>
+      <c r="AW256" s="1"/>
+      <c r="AX256" s="1"/>
+      <c r="AY256" s="1"/>
+      <c r="AZ256" s="1"/>
+      <c r="BA256" s="1"/>
+      <c r="BB256" s="1"/>
+      <c r="BC256" s="1"/>
+      <c r="BD256" s="1"/>
+      <c r="BE256" s="1"/>
+      <c r="BF256" s="1"/>
+      <c r="BG256" s="1"/>
+      <c r="BH256" s="1"/>
+      <c r="BI256" s="1"/>
+      <c r="BJ256" s="1"/>
+      <c r="BK256" s="1"/>
+      <c r="BL256" s="1"/>
+      <c r="BM256" s="8"/>
+      <c r="BN256" s="1"/>
+      <c r="BO256" s="1"/>
+      <c r="BP256" s="1"/>
+      <c r="BQ256" s="1"/>
+      <c r="BR256" s="1"/>
+      <c r="BS256" s="1"/>
+      <c r="BT256" s="1"/>
+      <c r="BU256" s="1"/>
+      <c r="BV256" s="1"/>
+      <c r="BW256" s="1"/>
+      <c r="BX256" s="1"/>
+      <c r="BY256" s="1"/>
+      <c r="BZ256" s="1"/>
+      <c r="CA256" s="1"/>
+      <c r="CB256" s="1"/>
+      <c r="CC256" s="1"/>
+      <c r="CD256" s="1"/>
+      <c r="CE256" s="1"/>
+      <c r="CF256" s="1"/>
+      <c r="CG256" s="1"/>
+      <c r="CH256" s="1"/>
+      <c r="CI256" s="1"/>
+      <c r="CJ256" s="1"/>
+      <c r="CK256" s="1"/>
+      <c r="CL256" s="1"/>
+      <c r="CM256" s="1"/>
+      <c r="CN256" s="1"/>
+      <c r="CO256" s="1"/>
+      <c r="CP256" s="1"/>
+      <c r="CQ256" s="1"/>
+      <c r="CR256" s="1"/>
+      <c r="CS256" s="1"/>
+      <c r="CT256" s="1"/>
+      <c r="CU256" s="1"/>
+      <c r="CV256" s="1"/>
+      <c r="CW256" s="1"/>
     </row>
-    <row r="257" spans="1:101" s="21" customFormat="1">
-      <c r="A257" s="17" t="s">
+    <row r="257" spans="1:101">
+      <c r="A257" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B257" s="17">
+      <c r="B257" s="1">
         <v>2050048</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D257" s="17" t="s">
+      <c r="D257" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E257" s="17" t="s">
+      <c r="E257" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F257" s="17">
+      <c r="F257" s="1">
         <v>3</v>
       </c>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="H257" s="17">
+      <c r="G257" s="1">
+        <v>1</v>
+      </c>
+      <c r="H257" s="1">
         <v>3.6</v>
       </c>
-      <c r="I257" s="23">
-        <v>1</v>
-      </c>
-      <c r="J257" s="19" t="s">
+      <c r="I257" s="15">
+        <v>1</v>
+      </c>
+      <c r="J257" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K257" s="19" t="s">
+      <c r="K257" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L257" s="17"/>
-      <c r="M257" s="17"/>
-      <c r="N257" s="17"/>
-      <c r="O257" s="17"/>
-      <c r="P257" s="17"/>
-      <c r="Q257" s="17"/>
-      <c r="R257" s="17"/>
-      <c r="S257" s="17"/>
-      <c r="T257" s="17"/>
-      <c r="U257" s="17"/>
-      <c r="V257" s="17"/>
-      <c r="W257" s="17"/>
-      <c r="X257" s="17"/>
-      <c r="Y257" s="17"/>
-      <c r="Z257" s="17"/>
-      <c r="AA257" s="17"/>
-      <c r="AB257" s="17"/>
-      <c r="AC257" s="17"/>
-      <c r="AD257" s="17"/>
-      <c r="AE257" s="17"/>
-      <c r="AF257" s="17"/>
-      <c r="AG257" s="17"/>
-      <c r="AH257" s="17"/>
-      <c r="AI257" s="17"/>
-      <c r="AJ257" s="17"/>
-      <c r="AK257" s="17"/>
-      <c r="AL257" s="17"/>
-      <c r="AM257" s="17"/>
-      <c r="AN257" s="17"/>
-      <c r="AO257" s="17"/>
-      <c r="AP257" s="17"/>
-      <c r="AQ257" s="17"/>
-      <c r="AR257" s="17"/>
-      <c r="AS257" s="17"/>
-      <c r="AT257" s="17"/>
-      <c r="AU257" s="17"/>
-      <c r="AV257" s="17"/>
-      <c r="AW257" s="17"/>
-      <c r="AX257" s="17"/>
-      <c r="AY257" s="17"/>
-      <c r="AZ257" s="17"/>
-      <c r="BA257" s="17"/>
-      <c r="BB257" s="17"/>
-      <c r="BC257" s="17"/>
-      <c r="BD257" s="17"/>
-      <c r="BE257" s="17"/>
-      <c r="BF257" s="17"/>
-      <c r="BG257" s="17"/>
-      <c r="BH257" s="17"/>
-      <c r="BI257" s="17"/>
-      <c r="BJ257" s="17"/>
-      <c r="BK257" s="17"/>
-      <c r="BL257" s="17"/>
-      <c r="BM257" s="20"/>
-      <c r="BN257" s="17"/>
-      <c r="BO257" s="17"/>
-      <c r="BP257" s="17"/>
-      <c r="BQ257" s="17"/>
-      <c r="BR257" s="17"/>
-      <c r="BS257" s="17"/>
-      <c r="BT257" s="17"/>
-      <c r="BU257" s="17"/>
-      <c r="BV257" s="17"/>
-      <c r="BW257" s="17"/>
-      <c r="BX257" s="17"/>
-      <c r="BY257" s="17"/>
-      <c r="BZ257" s="17"/>
-      <c r="CA257" s="17"/>
-      <c r="CB257" s="17"/>
-      <c r="CC257" s="17"/>
-      <c r="CD257" s="17"/>
-      <c r="CE257" s="17"/>
-      <c r="CF257" s="17"/>
-      <c r="CG257" s="17"/>
-      <c r="CH257" s="17"/>
-      <c r="CI257" s="17"/>
-      <c r="CJ257" s="17"/>
-      <c r="CK257" s="17"/>
-      <c r="CL257" s="17"/>
-      <c r="CM257" s="17"/>
-      <c r="CN257" s="17"/>
-      <c r="CO257" s="17"/>
-      <c r="CP257" s="17"/>
-      <c r="CQ257" s="17"/>
-      <c r="CR257" s="17"/>
-      <c r="CS257" s="17"/>
-      <c r="CT257" s="17"/>
-      <c r="CU257" s="17"/>
-      <c r="CV257" s="17"/>
-      <c r="CW257" s="17"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+      <c r="U257" s="1"/>
+      <c r="V257" s="1"/>
+      <c r="W257" s="1"/>
+      <c r="X257" s="1"/>
+      <c r="Y257" s="1"/>
+      <c r="Z257" s="1"/>
+      <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
+      <c r="AC257" s="1"/>
+      <c r="AD257" s="1"/>
+      <c r="AE257" s="1"/>
+      <c r="AF257" s="1"/>
+      <c r="AG257" s="1"/>
+      <c r="AH257" s="1"/>
+      <c r="AI257" s="1"/>
+      <c r="AJ257" s="1"/>
+      <c r="AK257" s="1"/>
+      <c r="AL257" s="1"/>
+      <c r="AM257" s="1"/>
+      <c r="AN257" s="1"/>
+      <c r="AO257" s="1"/>
+      <c r="AP257" s="1"/>
+      <c r="AQ257" s="1"/>
+      <c r="AR257" s="1"/>
+      <c r="AS257" s="1"/>
+      <c r="AT257" s="1"/>
+      <c r="AU257" s="1"/>
+      <c r="AV257" s="1"/>
+      <c r="AW257" s="1"/>
+      <c r="AX257" s="1"/>
+      <c r="AY257" s="1"/>
+      <c r="AZ257" s="1"/>
+      <c r="BA257" s="1"/>
+      <c r="BB257" s="1"/>
+      <c r="BC257" s="1"/>
+      <c r="BD257" s="1"/>
+      <c r="BE257" s="1"/>
+      <c r="BF257" s="1"/>
+      <c r="BG257" s="1"/>
+      <c r="BH257" s="1"/>
+      <c r="BI257" s="1"/>
+      <c r="BJ257" s="1"/>
+      <c r="BK257" s="1"/>
+      <c r="BL257" s="1"/>
+      <c r="BM257" s="8"/>
+      <c r="BN257" s="1"/>
+      <c r="BO257" s="1"/>
+      <c r="BP257" s="1"/>
+      <c r="BQ257" s="1"/>
+      <c r="BR257" s="1"/>
+      <c r="BS257" s="1"/>
+      <c r="BT257" s="1"/>
+      <c r="BU257" s="1"/>
+      <c r="BV257" s="1"/>
+      <c r="BW257" s="1"/>
+      <c r="BX257" s="1"/>
+      <c r="BY257" s="1"/>
+      <c r="BZ257" s="1"/>
+      <c r="CA257" s="1"/>
+      <c r="CB257" s="1"/>
+      <c r="CC257" s="1"/>
+      <c r="CD257" s="1"/>
+      <c r="CE257" s="1"/>
+      <c r="CF257" s="1"/>
+      <c r="CG257" s="1"/>
+      <c r="CH257" s="1"/>
+      <c r="CI257" s="1"/>
+      <c r="CJ257" s="1"/>
+      <c r="CK257" s="1"/>
+      <c r="CL257" s="1"/>
+      <c r="CM257" s="1"/>
+      <c r="CN257" s="1"/>
+      <c r="CO257" s="1"/>
+      <c r="CP257" s="1"/>
+      <c r="CQ257" s="1"/>
+      <c r="CR257" s="1"/>
+      <c r="CS257" s="1"/>
+      <c r="CT257" s="1"/>
+      <c r="CU257" s="1"/>
+      <c r="CV257" s="1"/>
+      <c r="CW257" s="1"/>
     </row>
-    <row r="258" spans="1:101" s="21" customFormat="1">
-      <c r="A258" s="17" t="s">
+    <row r="258" spans="1:101">
+      <c r="A258" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B258" s="17">
+      <c r="B258" s="1">
         <v>2050048</v>
       </c>
-      <c r="C258" s="17" t="s">
+      <c r="C258" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D258" s="17" t="s">
+      <c r="D258" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E258" s="17" t="s">
+      <c r="E258" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F258" s="17">
+      <c r="F258" s="1">
         <v>4</v>
       </c>
-      <c r="G258" s="17">
-        <v>1</v>
-      </c>
-      <c r="H258" s="17">
+      <c r="G258" s="1">
+        <v>1</v>
+      </c>
+      <c r="H258" s="1">
         <v>3.6</v>
       </c>
-      <c r="I258" s="23">
-        <v>1</v>
-      </c>
-      <c r="J258" s="19" t="s">
+      <c r="I258" s="15">
+        <v>1</v>
+      </c>
+      <c r="J258" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K258" s="19" t="s">
+      <c r="K258" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L258" s="17"/>
-      <c r="M258" s="17"/>
-      <c r="N258" s="17"/>
-      <c r="O258" s="17"/>
-      <c r="P258" s="17"/>
-      <c r="Q258" s="17"/>
-      <c r="R258" s="17"/>
-      <c r="S258" s="17"/>
-      <c r="T258" s="17"/>
-      <c r="U258" s="17"/>
-      <c r="V258" s="17"/>
-      <c r="W258" s="17"/>
-      <c r="X258" s="17"/>
-      <c r="Y258" s="17"/>
-      <c r="Z258" s="17"/>
-      <c r="AA258" s="17"/>
-      <c r="AB258" s="17"/>
-      <c r="AC258" s="17"/>
-      <c r="AD258" s="17"/>
-      <c r="AE258" s="17"/>
-      <c r="AF258" s="17"/>
-      <c r="AG258" s="17"/>
-      <c r="AH258" s="17"/>
-      <c r="AI258" s="17"/>
-      <c r="AJ258" s="17"/>
-      <c r="AK258" s="17"/>
-      <c r="AL258" s="17"/>
-      <c r="AM258" s="17"/>
-      <c r="AN258" s="17"/>
-      <c r="AO258" s="17"/>
-      <c r="AP258" s="17"/>
-      <c r="AQ258" s="17"/>
-      <c r="AR258" s="17"/>
-      <c r="AS258" s="17"/>
-      <c r="AT258" s="17"/>
-      <c r="AU258" s="17"/>
-      <c r="AV258" s="17"/>
-      <c r="AW258" s="17"/>
-      <c r="AX258" s="17"/>
-      <c r="AY258" s="17"/>
-      <c r="AZ258" s="17"/>
-      <c r="BA258" s="17"/>
-      <c r="BB258" s="17"/>
-      <c r="BC258" s="17"/>
-      <c r="BD258" s="17"/>
-      <c r="BE258" s="17"/>
-      <c r="BF258" s="17"/>
-      <c r="BG258" s="17"/>
-      <c r="BH258" s="17"/>
-      <c r="BI258" s="17"/>
-      <c r="BJ258" s="17"/>
-      <c r="BK258" s="17"/>
-      <c r="BL258" s="17"/>
-      <c r="BM258" s="17"/>
-      <c r="BN258" s="17"/>
-      <c r="BO258" s="17"/>
-      <c r="BP258" s="17"/>
-      <c r="BQ258" s="17"/>
-      <c r="BR258" s="17"/>
-      <c r="BS258" s="17"/>
-      <c r="BT258" s="17"/>
-      <c r="BU258" s="17"/>
-      <c r="BV258" s="17"/>
-      <c r="BW258" s="17"/>
-      <c r="BX258" s="17"/>
-      <c r="BY258" s="17"/>
-      <c r="BZ258" s="17"/>
-      <c r="CA258" s="17"/>
-      <c r="CB258" s="17"/>
-      <c r="CC258" s="17"/>
-      <c r="CD258" s="17"/>
-      <c r="CE258" s="17"/>
-      <c r="CF258" s="17"/>
-      <c r="CG258" s="17"/>
-      <c r="CH258" s="17"/>
-      <c r="CI258" s="17"/>
-      <c r="CJ258" s="17"/>
-      <c r="CK258" s="17"/>
-      <c r="CL258" s="17"/>
-      <c r="CM258" s="17"/>
-      <c r="CN258" s="17"/>
-      <c r="CO258" s="17"/>
-      <c r="CP258" s="17"/>
-      <c r="CQ258" s="17"/>
-      <c r="CR258" s="17"/>
-      <c r="CS258" s="17"/>
-      <c r="CT258" s="17"/>
-      <c r="CU258" s="17"/>
-      <c r="CV258" s="17"/>
-      <c r="CW258" s="17"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
+      <c r="AE258" s="1"/>
+      <c r="AF258" s="1"/>
+      <c r="AG258" s="1"/>
+      <c r="AH258" s="1"/>
+      <c r="AI258" s="1"/>
+      <c r="AJ258" s="1"/>
+      <c r="AK258" s="1"/>
+      <c r="AL258" s="1"/>
+      <c r="AM258" s="1"/>
+      <c r="AN258" s="1"/>
+      <c r="AO258" s="1"/>
+      <c r="AP258" s="1"/>
+      <c r="AQ258" s="1"/>
+      <c r="AR258" s="1"/>
+      <c r="AS258" s="1"/>
+      <c r="AT258" s="1"/>
+      <c r="AU258" s="1"/>
+      <c r="AV258" s="1"/>
+      <c r="AW258" s="1"/>
+      <c r="AX258" s="1"/>
+      <c r="AY258" s="1"/>
+      <c r="AZ258" s="1"/>
+      <c r="BA258" s="1"/>
+      <c r="BB258" s="1"/>
+      <c r="BC258" s="1"/>
+      <c r="BD258" s="1"/>
+      <c r="BE258" s="1"/>
+      <c r="BF258" s="1"/>
+      <c r="BG258" s="1"/>
+      <c r="BH258" s="1"/>
+      <c r="BI258" s="1"/>
+      <c r="BJ258" s="1"/>
+      <c r="BK258" s="1"/>
+      <c r="BL258" s="1"/>
+      <c r="BM258" s="1"/>
+      <c r="BN258" s="1"/>
+      <c r="BO258" s="1"/>
+      <c r="BP258" s="1"/>
+      <c r="BQ258" s="1"/>
+      <c r="BR258" s="1"/>
+      <c r="BS258" s="1"/>
+      <c r="BT258" s="1"/>
+      <c r="BU258" s="1"/>
+      <c r="BV258" s="1"/>
+      <c r="BW258" s="1"/>
+      <c r="BX258" s="1"/>
+      <c r="BY258" s="1"/>
+      <c r="BZ258" s="1"/>
+      <c r="CA258" s="1"/>
+      <c r="CB258" s="1"/>
+      <c r="CC258" s="1"/>
+      <c r="CD258" s="1"/>
+      <c r="CE258" s="1"/>
+      <c r="CF258" s="1"/>
+      <c r="CG258" s="1"/>
+      <c r="CH258" s="1"/>
+      <c r="CI258" s="1"/>
+      <c r="CJ258" s="1"/>
+      <c r="CK258" s="1"/>
+      <c r="CL258" s="1"/>
+      <c r="CM258" s="1"/>
+      <c r="CN258" s="1"/>
+      <c r="CO258" s="1"/>
+      <c r="CP258" s="1"/>
+      <c r="CQ258" s="1"/>
+      <c r="CR258" s="1"/>
+      <c r="CS258" s="1"/>
+      <c r="CT258" s="1"/>
+      <c r="CU258" s="1"/>
+      <c r="CV258" s="1"/>
+      <c r="CW258" s="1"/>
     </row>
-    <row r="259" spans="1:101" s="21" customFormat="1">
-      <c r="A259" s="17" t="s">
+    <row r="259" spans="1:101">
+      <c r="A259" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B259" s="17">
+      <c r="B259" s="1">
         <v>2050048</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D259" s="17" t="s">
+      <c r="D259" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E259" s="17" t="s">
+      <c r="E259" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="H259" s="17">
+      <c r="F259" s="1">
+        <v>1</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1</v>
+      </c>
+      <c r="H259" s="1">
         <v>2.4</v>
       </c>
-      <c r="I259" s="23">
-        <v>1</v>
-      </c>
-      <c r="J259" s="18"/>
-      <c r="K259" s="19" t="s">
+      <c r="I259" s="15">
+        <v>1</v>
+      </c>
+      <c r="J259" s="11"/>
+      <c r="K259" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L259" s="17"/>
-      <c r="M259" s="17"/>
-      <c r="N259" s="17"/>
-      <c r="O259" s="17"/>
-      <c r="P259" s="17"/>
-      <c r="Q259" s="17"/>
-      <c r="R259" s="17"/>
-      <c r="S259" s="17"/>
-      <c r="T259" s="17"/>
-      <c r="U259" s="17"/>
-      <c r="V259" s="17"/>
-      <c r="W259" s="17"/>
-      <c r="X259" s="17"/>
-      <c r="Y259" s="17"/>
-      <c r="Z259" s="17"/>
-      <c r="AA259" s="17"/>
-      <c r="AB259" s="17"/>
-      <c r="AC259" s="17"/>
-      <c r="AD259" s="17"/>
-      <c r="AE259" s="17"/>
-      <c r="AF259" s="17"/>
-      <c r="AG259" s="17"/>
-      <c r="AH259" s="17"/>
-      <c r="AI259" s="17"/>
-      <c r="AJ259" s="17"/>
-      <c r="AK259" s="17"/>
-      <c r="AL259" s="17"/>
-      <c r="AM259" s="17"/>
-      <c r="AN259" s="17"/>
-      <c r="AO259" s="17"/>
-      <c r="AP259" s="17"/>
-      <c r="AQ259" s="17"/>
-      <c r="AR259" s="17"/>
-      <c r="AS259" s="17"/>
-      <c r="AT259" s="17"/>
-      <c r="AU259" s="17"/>
-      <c r="AV259" s="17"/>
-      <c r="AW259" s="17"/>
-      <c r="AX259" s="17"/>
-      <c r="AY259" s="17"/>
-      <c r="AZ259" s="17"/>
-      <c r="BA259" s="17"/>
-      <c r="BB259" s="17"/>
-      <c r="BC259" s="17"/>
-      <c r="BD259" s="17"/>
-      <c r="BE259" s="17"/>
-      <c r="BF259" s="17"/>
-      <c r="BG259" s="17"/>
-      <c r="BH259" s="17"/>
-      <c r="BI259" s="17"/>
-      <c r="BJ259" s="17"/>
-      <c r="BK259" s="17"/>
-      <c r="BL259" s="17"/>
-      <c r="BM259" s="20"/>
-      <c r="BN259" s="17"/>
-      <c r="BO259" s="17"/>
-      <c r="BP259" s="17"/>
-      <c r="BQ259" s="17"/>
-      <c r="BR259" s="17"/>
-      <c r="BS259" s="17"/>
-      <c r="BT259" s="17"/>
-      <c r="BU259" s="17"/>
-      <c r="BV259" s="17"/>
-      <c r="BW259" s="17"/>
-      <c r="BX259" s="17"/>
-      <c r="BY259" s="17"/>
-      <c r="BZ259" s="17"/>
-      <c r="CA259" s="17"/>
-      <c r="CB259" s="17"/>
-      <c r="CC259" s="17"/>
-      <c r="CD259" s="17"/>
-      <c r="CE259" s="17"/>
-      <c r="CF259" s="17"/>
-      <c r="CG259" s="17"/>
-      <c r="CH259" s="17"/>
-      <c r="CI259" s="17"/>
-      <c r="CJ259" s="17"/>
-      <c r="CK259" s="17"/>
-      <c r="CL259" s="17"/>
-      <c r="CM259" s="17"/>
-      <c r="CN259" s="17"/>
-      <c r="CO259" s="17"/>
-      <c r="CP259" s="17"/>
-      <c r="CQ259" s="17"/>
-      <c r="CR259" s="17"/>
-      <c r="CS259" s="17"/>
-      <c r="CT259" s="17"/>
-      <c r="CU259" s="17"/>
-      <c r="CV259" s="17"/>
-      <c r="CW259" s="17"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="1"/>
+      <c r="X259" s="1"/>
+      <c r="Y259" s="1"/>
+      <c r="Z259" s="1"/>
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
+      <c r="AD259" s="1"/>
+      <c r="AE259" s="1"/>
+      <c r="AF259" s="1"/>
+      <c r="AG259" s="1"/>
+      <c r="AH259" s="1"/>
+      <c r="AI259" s="1"/>
+      <c r="AJ259" s="1"/>
+      <c r="AK259" s="1"/>
+      <c r="AL259" s="1"/>
+      <c r="AM259" s="1"/>
+      <c r="AN259" s="1"/>
+      <c r="AO259" s="1"/>
+      <c r="AP259" s="1"/>
+      <c r="AQ259" s="1"/>
+      <c r="AR259" s="1"/>
+      <c r="AS259" s="1"/>
+      <c r="AT259" s="1"/>
+      <c r="AU259" s="1"/>
+      <c r="AV259" s="1"/>
+      <c r="AW259" s="1"/>
+      <c r="AX259" s="1"/>
+      <c r="AY259" s="1"/>
+      <c r="AZ259" s="1"/>
+      <c r="BA259" s="1"/>
+      <c r="BB259" s="1"/>
+      <c r="BC259" s="1"/>
+      <c r="BD259" s="1"/>
+      <c r="BE259" s="1"/>
+      <c r="BF259" s="1"/>
+      <c r="BG259" s="1"/>
+      <c r="BH259" s="1"/>
+      <c r="BI259" s="1"/>
+      <c r="BJ259" s="1"/>
+      <c r="BK259" s="1"/>
+      <c r="BL259" s="1"/>
+      <c r="BM259" s="8"/>
+      <c r="BN259" s="1"/>
+      <c r="BO259" s="1"/>
+      <c r="BP259" s="1"/>
+      <c r="BQ259" s="1"/>
+      <c r="BR259" s="1"/>
+      <c r="BS259" s="1"/>
+      <c r="BT259" s="1"/>
+      <c r="BU259" s="1"/>
+      <c r="BV259" s="1"/>
+      <c r="BW259" s="1"/>
+      <c r="BX259" s="1"/>
+      <c r="BY259" s="1"/>
+      <c r="BZ259" s="1"/>
+      <c r="CA259" s="1"/>
+      <c r="CB259" s="1"/>
+      <c r="CC259" s="1"/>
+      <c r="CD259" s="1"/>
+      <c r="CE259" s="1"/>
+      <c r="CF259" s="1"/>
+      <c r="CG259" s="1"/>
+      <c r="CH259" s="1"/>
+      <c r="CI259" s="1"/>
+      <c r="CJ259" s="1"/>
+      <c r="CK259" s="1"/>
+      <c r="CL259" s="1"/>
+      <c r="CM259" s="1"/>
+      <c r="CN259" s="1"/>
+      <c r="CO259" s="1"/>
+      <c r="CP259" s="1"/>
+      <c r="CQ259" s="1"/>
+      <c r="CR259" s="1"/>
+      <c r="CS259" s="1"/>
+      <c r="CT259" s="1"/>
+      <c r="CU259" s="1"/>
+      <c r="CV259" s="1"/>
+      <c r="CW259" s="1"/>
     </row>
-    <row r="260" spans="1:101" s="21" customFormat="1">
-      <c r="A260" s="17" t="s">
+    <row r="260" spans="1:101">
+      <c r="A260" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B260" s="17">
+      <c r="B260" s="1">
         <v>2050048</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D260" s="17" t="s">
+      <c r="D260" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E260" s="17" t="s">
+      <c r="E260" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F260" s="17">
+      <c r="F260" s="1">
         <v>2</v>
       </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="H260" s="17">
+      <c r="G260" s="1">
+        <v>1</v>
+      </c>
+      <c r="H260" s="1">
         <v>2.4</v>
       </c>
-      <c r="I260" s="23">
-        <v>1</v>
-      </c>
-      <c r="J260" s="18"/>
-      <c r="K260" s="19" t="s">
+      <c r="I260" s="15">
+        <v>1</v>
+      </c>
+      <c r="J260" s="11"/>
+      <c r="K260" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L260" s="17"/>
-      <c r="M260" s="17"/>
-      <c r="N260" s="17"/>
-      <c r="O260" s="17"/>
-      <c r="P260" s="17"/>
-      <c r="Q260" s="17"/>
-      <c r="R260" s="17"/>
-      <c r="S260" s="17"/>
-      <c r="T260" s="17"/>
-      <c r="U260" s="17"/>
-      <c r="V260" s="17"/>
-      <c r="W260" s="17"/>
-      <c r="X260" s="17"/>
-      <c r="Y260" s="17"/>
-      <c r="Z260" s="17"/>
-      <c r="AA260" s="17"/>
-      <c r="AB260" s="17"/>
-      <c r="AC260" s="17"/>
-      <c r="AD260" s="17"/>
-      <c r="AE260" s="17"/>
-      <c r="AF260" s="17"/>
-      <c r="AG260" s="17"/>
-      <c r="AH260" s="17"/>
-      <c r="AI260" s="17"/>
-      <c r="AJ260" s="17"/>
-      <c r="AK260" s="17"/>
-      <c r="AL260" s="17"/>
-      <c r="AM260" s="17"/>
-      <c r="AN260" s="17"/>
-      <c r="AO260" s="17"/>
-      <c r="AP260" s="17"/>
-      <c r="AQ260" s="17"/>
-      <c r="AR260" s="17"/>
-      <c r="AS260" s="17"/>
-      <c r="AT260" s="17"/>
-      <c r="AU260" s="17"/>
-      <c r="AV260" s="17"/>
-      <c r="AW260" s="17"/>
-      <c r="AX260" s="17"/>
-      <c r="AY260" s="17"/>
-      <c r="AZ260" s="17"/>
-      <c r="BA260" s="17"/>
-      <c r="BB260" s="17"/>
-      <c r="BC260" s="17"/>
-      <c r="BD260" s="17"/>
-      <c r="BE260" s="17"/>
-      <c r="BF260" s="17"/>
-      <c r="BG260" s="17"/>
-      <c r="BH260" s="17"/>
-      <c r="BI260" s="17"/>
-      <c r="BJ260" s="17"/>
-      <c r="BK260" s="17"/>
-      <c r="BL260" s="17"/>
-      <c r="BM260" s="17"/>
-      <c r="BN260" s="17"/>
-      <c r="BO260" s="17"/>
-      <c r="BP260" s="17"/>
-      <c r="BQ260" s="17"/>
-      <c r="BR260" s="17"/>
-      <c r="BS260" s="17"/>
-      <c r="BT260" s="17"/>
-      <c r="BU260" s="17"/>
-      <c r="BV260" s="17"/>
-      <c r="BW260" s="17"/>
-      <c r="BX260" s="17"/>
-      <c r="BY260" s="17"/>
-      <c r="BZ260" s="17"/>
-      <c r="CA260" s="17"/>
-      <c r="CB260" s="17"/>
-      <c r="CC260" s="17"/>
-      <c r="CD260" s="17"/>
-      <c r="CE260" s="17"/>
-      <c r="CF260" s="17"/>
-      <c r="CG260" s="17"/>
-      <c r="CH260" s="17"/>
-      <c r="CI260" s="17"/>
-      <c r="CJ260" s="17"/>
-      <c r="CK260" s="17"/>
-      <c r="CL260" s="17"/>
-      <c r="CM260" s="17"/>
-      <c r="CN260" s="17"/>
-      <c r="CO260" s="17"/>
-      <c r="CP260" s="17"/>
-      <c r="CQ260" s="17"/>
-      <c r="CR260" s="17"/>
-      <c r="CS260" s="17"/>
-      <c r="CT260" s="17"/>
-      <c r="CU260" s="17"/>
-      <c r="CV260" s="17"/>
-      <c r="CW260" s="17"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1"/>
+      <c r="Y260" s="1"/>
+      <c r="Z260" s="1"/>
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
+      <c r="AD260" s="1"/>
+      <c r="AE260" s="1"/>
+      <c r="AF260" s="1"/>
+      <c r="AG260" s="1"/>
+      <c r="AH260" s="1"/>
+      <c r="AI260" s="1"/>
+      <c r="AJ260" s="1"/>
+      <c r="AK260" s="1"/>
+      <c r="AL260" s="1"/>
+      <c r="AM260" s="1"/>
+      <c r="AN260" s="1"/>
+      <c r="AO260" s="1"/>
+      <c r="AP260" s="1"/>
+      <c r="AQ260" s="1"/>
+      <c r="AR260" s="1"/>
+      <c r="AS260" s="1"/>
+      <c r="AT260" s="1"/>
+      <c r="AU260" s="1"/>
+      <c r="AV260" s="1"/>
+      <c r="AW260" s="1"/>
+      <c r="AX260" s="1"/>
+      <c r="AY260" s="1"/>
+      <c r="AZ260" s="1"/>
+      <c r="BA260" s="1"/>
+      <c r="BB260" s="1"/>
+      <c r="BC260" s="1"/>
+      <c r="BD260" s="1"/>
+      <c r="BE260" s="1"/>
+      <c r="BF260" s="1"/>
+      <c r="BG260" s="1"/>
+      <c r="BH260" s="1"/>
+      <c r="BI260" s="1"/>
+      <c r="BJ260" s="1"/>
+      <c r="BK260" s="1"/>
+      <c r="BL260" s="1"/>
+      <c r="BM260" s="1"/>
+      <c r="BN260" s="1"/>
+      <c r="BO260" s="1"/>
+      <c r="BP260" s="1"/>
+      <c r="BQ260" s="1"/>
+      <c r="BR260" s="1"/>
+      <c r="BS260" s="1"/>
+      <c r="BT260" s="1"/>
+      <c r="BU260" s="1"/>
+      <c r="BV260" s="1"/>
+      <c r="BW260" s="1"/>
+      <c r="BX260" s="1"/>
+      <c r="BY260" s="1"/>
+      <c r="BZ260" s="1"/>
+      <c r="CA260" s="1"/>
+      <c r="CB260" s="1"/>
+      <c r="CC260" s="1"/>
+      <c r="CD260" s="1"/>
+      <c r="CE260" s="1"/>
+      <c r="CF260" s="1"/>
+      <c r="CG260" s="1"/>
+      <c r="CH260" s="1"/>
+      <c r="CI260" s="1"/>
+      <c r="CJ260" s="1"/>
+      <c r="CK260" s="1"/>
+      <c r="CL260" s="1"/>
+      <c r="CM260" s="1"/>
+      <c r="CN260" s="1"/>
+      <c r="CO260" s="1"/>
+      <c r="CP260" s="1"/>
+      <c r="CQ260" s="1"/>
+      <c r="CR260" s="1"/>
+      <c r="CS260" s="1"/>
+      <c r="CT260" s="1"/>
+      <c r="CU260" s="1"/>
+      <c r="CV260" s="1"/>
+      <c r="CW260" s="1"/>
     </row>
-    <row r="261" spans="1:101" s="21" customFormat="1">
-      <c r="A261" s="17" t="s">
+    <row r="261" spans="1:101">
+      <c r="A261" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B261" s="17">
+      <c r="B261" s="1">
         <v>2050048</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D261" s="17" t="s">
+      <c r="D261" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E261" s="17" t="s">
+      <c r="E261" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F261" s="17">
+      <c r="F261" s="1">
         <v>3</v>
       </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="H261" s="17">
+      <c r="G261" s="1">
+        <v>1</v>
+      </c>
+      <c r="H261" s="1">
         <v>2.4</v>
       </c>
-      <c r="I261" s="23">
-        <v>1</v>
-      </c>
-      <c r="J261" s="18"/>
-      <c r="K261" s="19" t="s">
+      <c r="I261" s="15">
+        <v>1</v>
+      </c>
+      <c r="J261" s="11"/>
+      <c r="K261" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L261" s="17"/>
-      <c r="M261" s="17"/>
-      <c r="N261" s="17"/>
-      <c r="O261" s="17"/>
-      <c r="P261" s="17"/>
-      <c r="Q261" s="17"/>
-      <c r="R261" s="17"/>
-      <c r="S261" s="17"/>
-      <c r="T261" s="17"/>
-      <c r="U261" s="17"/>
-      <c r="V261" s="17"/>
-      <c r="W261" s="17"/>
-      <c r="X261" s="17"/>
-      <c r="Y261" s="17"/>
-      <c r="Z261" s="17"/>
-      <c r="AA261" s="17"/>
-      <c r="AB261" s="17"/>
-      <c r="AC261" s="17"/>
-      <c r="AD261" s="17"/>
-      <c r="AE261" s="17"/>
-      <c r="AF261" s="17"/>
-      <c r="AG261" s="17"/>
-      <c r="AH261" s="17"/>
-      <c r="AI261" s="17"/>
-      <c r="AJ261" s="17"/>
-      <c r="AK261" s="17"/>
-      <c r="AL261" s="17"/>
-      <c r="AM261" s="17"/>
-      <c r="AN261" s="17"/>
-      <c r="AO261" s="17"/>
-      <c r="AP261" s="17"/>
-      <c r="AQ261" s="17"/>
-      <c r="AR261" s="17"/>
-      <c r="AS261" s="17"/>
-      <c r="AT261" s="17"/>
-      <c r="AU261" s="17"/>
-      <c r="AV261" s="17"/>
-      <c r="AW261" s="17"/>
-      <c r="AX261" s="17"/>
-      <c r="AY261" s="17"/>
-      <c r="AZ261" s="17"/>
-      <c r="BA261" s="17"/>
-      <c r="BB261" s="17"/>
-      <c r="BC261" s="17"/>
-      <c r="BD261" s="17"/>
-      <c r="BE261" s="17"/>
-      <c r="BF261" s="17"/>
-      <c r="BG261" s="17"/>
-      <c r="BH261" s="17"/>
-      <c r="BI261" s="17"/>
-      <c r="BJ261" s="17"/>
-      <c r="BK261" s="17"/>
-      <c r="BL261" s="17"/>
-      <c r="BM261" s="17"/>
-      <c r="BN261" s="17"/>
-      <c r="BO261" s="17"/>
-      <c r="BP261" s="17"/>
-      <c r="BQ261" s="17"/>
-      <c r="BR261" s="17"/>
-      <c r="BS261" s="17"/>
-      <c r="BT261" s="17"/>
-      <c r="BU261" s="17"/>
-      <c r="BV261" s="17"/>
-      <c r="BW261" s="17"/>
-      <c r="BX261" s="17"/>
-      <c r="BY261" s="17"/>
-      <c r="BZ261" s="17"/>
-      <c r="CA261" s="17"/>
-      <c r="CB261" s="17"/>
-      <c r="CC261" s="17"/>
-      <c r="CD261" s="17"/>
-      <c r="CE261" s="17"/>
-      <c r="CF261" s="17"/>
-      <c r="CG261" s="17"/>
-      <c r="CH261" s="17"/>
-      <c r="CI261" s="17"/>
-      <c r="CJ261" s="17"/>
-      <c r="CK261" s="17"/>
-      <c r="CL261" s="17"/>
-      <c r="CM261" s="17"/>
-      <c r="CN261" s="17"/>
-      <c r="CO261" s="17"/>
-      <c r="CP261" s="17"/>
-      <c r="CQ261" s="17"/>
-      <c r="CR261" s="17"/>
-      <c r="CS261" s="17"/>
-      <c r="CT261" s="17"/>
-      <c r="CU261" s="17"/>
-      <c r="CV261" s="17"/>
-      <c r="CW261" s="17"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+      <c r="W261" s="1"/>
+      <c r="X261" s="1"/>
+      <c r="Y261" s="1"/>
+      <c r="Z261" s="1"/>
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
+      <c r="AD261" s="1"/>
+      <c r="AE261" s="1"/>
+      <c r="AF261" s="1"/>
+      <c r="AG261" s="1"/>
+      <c r="AH261" s="1"/>
+      <c r="AI261" s="1"/>
+      <c r="AJ261" s="1"/>
+      <c r="AK261" s="1"/>
+      <c r="AL261" s="1"/>
+      <c r="AM261" s="1"/>
+      <c r="AN261" s="1"/>
+      <c r="AO261" s="1"/>
+      <c r="AP261" s="1"/>
+      <c r="AQ261" s="1"/>
+      <c r="AR261" s="1"/>
+      <c r="AS261" s="1"/>
+      <c r="AT261" s="1"/>
+      <c r="AU261" s="1"/>
+      <c r="AV261" s="1"/>
+      <c r="AW261" s="1"/>
+      <c r="AX261" s="1"/>
+      <c r="AY261" s="1"/>
+      <c r="AZ261" s="1"/>
+      <c r="BA261" s="1"/>
+      <c r="BB261" s="1"/>
+      <c r="BC261" s="1"/>
+      <c r="BD261" s="1"/>
+      <c r="BE261" s="1"/>
+      <c r="BF261" s="1"/>
+      <c r="BG261" s="1"/>
+      <c r="BH261" s="1"/>
+      <c r="BI261" s="1"/>
+      <c r="BJ261" s="1"/>
+      <c r="BK261" s="1"/>
+      <c r="BL261" s="1"/>
+      <c r="BM261" s="1"/>
+      <c r="BN261" s="1"/>
+      <c r="BO261" s="1"/>
+      <c r="BP261" s="1"/>
+      <c r="BQ261" s="1"/>
+      <c r="BR261" s="1"/>
+      <c r="BS261" s="1"/>
+      <c r="BT261" s="1"/>
+      <c r="BU261" s="1"/>
+      <c r="BV261" s="1"/>
+      <c r="BW261" s="1"/>
+      <c r="BX261" s="1"/>
+      <c r="BY261" s="1"/>
+      <c r="BZ261" s="1"/>
+      <c r="CA261" s="1"/>
+      <c r="CB261" s="1"/>
+      <c r="CC261" s="1"/>
+      <c r="CD261" s="1"/>
+      <c r="CE261" s="1"/>
+      <c r="CF261" s="1"/>
+      <c r="CG261" s="1"/>
+      <c r="CH261" s="1"/>
+      <c r="CI261" s="1"/>
+      <c r="CJ261" s="1"/>
+      <c r="CK261" s="1"/>
+      <c r="CL261" s="1"/>
+      <c r="CM261" s="1"/>
+      <c r="CN261" s="1"/>
+      <c r="CO261" s="1"/>
+      <c r="CP261" s="1"/>
+      <c r="CQ261" s="1"/>
+      <c r="CR261" s="1"/>
+      <c r="CS261" s="1"/>
+      <c r="CT261" s="1"/>
+      <c r="CU261" s="1"/>
+      <c r="CV261" s="1"/>
+      <c r="CW261" s="1"/>
     </row>
-    <row r="262" spans="1:101" s="21" customFormat="1">
-      <c r="A262" s="17" t="s">
+    <row r="262" spans="1:101">
+      <c r="A262" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B262" s="17">
+      <c r="B262" s="1">
         <v>2050048</v>
       </c>
-      <c r="C262" s="17" t="s">
+      <c r="C262" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D262" s="17" t="s">
+      <c r="D262" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E262" s="17" t="s">
+      <c r="E262" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F262" s="17">
+      <c r="F262" s="1">
         <v>4</v>
       </c>
-      <c r="G262" s="17">
-        <v>1</v>
-      </c>
-      <c r="H262" s="17">
+      <c r="G262" s="1">
+        <v>1</v>
+      </c>
+      <c r="H262" s="1">
         <v>2.4</v>
       </c>
-      <c r="I262" s="23">
-        <v>1</v>
-      </c>
-      <c r="J262" s="18"/>
-      <c r="K262" s="19" t="s">
+      <c r="I262" s="15">
+        <v>1</v>
+      </c>
+      <c r="J262" s="11"/>
+      <c r="K262" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L262" s="17"/>
-      <c r="M262" s="17"/>
-      <c r="N262" s="17"/>
-      <c r="O262" s="17"/>
-      <c r="P262" s="17"/>
-      <c r="Q262" s="17"/>
-      <c r="R262" s="17"/>
-      <c r="S262" s="17"/>
-      <c r="T262" s="17"/>
-      <c r="U262" s="17"/>
-      <c r="V262" s="17"/>
-      <c r="W262" s="17"/>
-      <c r="X262" s="17"/>
-      <c r="Y262" s="17"/>
-      <c r="Z262" s="17"/>
-      <c r="AA262" s="17"/>
-      <c r="AB262" s="17"/>
-      <c r="AC262" s="17"/>
-      <c r="AD262" s="17"/>
-      <c r="AE262" s="17"/>
-      <c r="AF262" s="17"/>
-      <c r="AG262" s="17"/>
-      <c r="AH262" s="17"/>
-      <c r="AI262" s="17"/>
-      <c r="AJ262" s="17"/>
-      <c r="AK262" s="17"/>
-      <c r="AL262" s="17"/>
-      <c r="AM262" s="17"/>
-      <c r="AN262" s="17"/>
-      <c r="AO262" s="17"/>
-      <c r="AP262" s="17"/>
-      <c r="AQ262" s="17"/>
-      <c r="AR262" s="17"/>
-      <c r="AS262" s="17"/>
-      <c r="AT262" s="17"/>
-      <c r="AU262" s="17"/>
-      <c r="AV262" s="17"/>
-      <c r="AW262" s="17"/>
-      <c r="AX262" s="17"/>
-      <c r="AY262" s="17"/>
-      <c r="AZ262" s="17"/>
-      <c r="BA262" s="17"/>
-      <c r="BB262" s="17"/>
-      <c r="BC262" s="17"/>
-      <c r="BD262" s="17"/>
-      <c r="BE262" s="17"/>
-      <c r="BF262" s="17"/>
-      <c r="BG262" s="17"/>
-      <c r="BH262" s="17"/>
-      <c r="BI262" s="17"/>
-      <c r="BJ262" s="17"/>
-      <c r="BK262" s="17"/>
-      <c r="BL262" s="17"/>
-      <c r="BM262" s="17"/>
-      <c r="BN262" s="17"/>
-      <c r="BO262" s="17"/>
-      <c r="BP262" s="17"/>
-      <c r="BQ262" s="17"/>
-      <c r="BR262" s="17"/>
-      <c r="BS262" s="17"/>
-      <c r="BT262" s="17"/>
-      <c r="BU262" s="17"/>
-      <c r="BV262" s="17"/>
-      <c r="BW262" s="17"/>
-      <c r="BX262" s="17"/>
-      <c r="BY262" s="17"/>
-      <c r="BZ262" s="17"/>
-      <c r="CA262" s="17"/>
-      <c r="CB262" s="17"/>
-      <c r="CC262" s="17"/>
-      <c r="CD262" s="17"/>
-      <c r="CE262" s="17"/>
-      <c r="CF262" s="17"/>
-      <c r="CG262" s="17"/>
-      <c r="CH262" s="17"/>
-      <c r="CI262" s="17"/>
-      <c r="CJ262" s="17"/>
-      <c r="CK262" s="17"/>
-      <c r="CL262" s="17"/>
-      <c r="CM262" s="17"/>
-      <c r="CN262" s="17"/>
-      <c r="CO262" s="17"/>
-      <c r="CP262" s="17"/>
-      <c r="CQ262" s="17"/>
-      <c r="CR262" s="17"/>
-      <c r="CS262" s="17"/>
-      <c r="CT262" s="17"/>
-      <c r="CU262" s="17"/>
-      <c r="CV262" s="17"/>
-      <c r="CW262" s="17"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
+      <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
+      <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
+      <c r="AC262" s="1"/>
+      <c r="AD262" s="1"/>
+      <c r="AE262" s="1"/>
+      <c r="AF262" s="1"/>
+      <c r="AG262" s="1"/>
+      <c r="AH262" s="1"/>
+      <c r="AI262" s="1"/>
+      <c r="AJ262" s="1"/>
+      <c r="AK262" s="1"/>
+      <c r="AL262" s="1"/>
+      <c r="AM262" s="1"/>
+      <c r="AN262" s="1"/>
+      <c r="AO262" s="1"/>
+      <c r="AP262" s="1"/>
+      <c r="AQ262" s="1"/>
+      <c r="AR262" s="1"/>
+      <c r="AS262" s="1"/>
+      <c r="AT262" s="1"/>
+      <c r="AU262" s="1"/>
+      <c r="AV262" s="1"/>
+      <c r="AW262" s="1"/>
+      <c r="AX262" s="1"/>
+      <c r="AY262" s="1"/>
+      <c r="AZ262" s="1"/>
+      <c r="BA262" s="1"/>
+      <c r="BB262" s="1"/>
+      <c r="BC262" s="1"/>
+      <c r="BD262" s="1"/>
+      <c r="BE262" s="1"/>
+      <c r="BF262" s="1"/>
+      <c r="BG262" s="1"/>
+      <c r="BH262" s="1"/>
+      <c r="BI262" s="1"/>
+      <c r="BJ262" s="1"/>
+      <c r="BK262" s="1"/>
+      <c r="BL262" s="1"/>
+      <c r="BM262" s="1"/>
+      <c r="BN262" s="1"/>
+      <c r="BO262" s="1"/>
+      <c r="BP262" s="1"/>
+      <c r="BQ262" s="1"/>
+      <c r="BR262" s="1"/>
+      <c r="BS262" s="1"/>
+      <c r="BT262" s="1"/>
+      <c r="BU262" s="1"/>
+      <c r="BV262" s="1"/>
+      <c r="BW262" s="1"/>
+      <c r="BX262" s="1"/>
+      <c r="BY262" s="1"/>
+      <c r="BZ262" s="1"/>
+      <c r="CA262" s="1"/>
+      <c r="CB262" s="1"/>
+      <c r="CC262" s="1"/>
+      <c r="CD262" s="1"/>
+      <c r="CE262" s="1"/>
+      <c r="CF262" s="1"/>
+      <c r="CG262" s="1"/>
+      <c r="CH262" s="1"/>
+      <c r="CI262" s="1"/>
+      <c r="CJ262" s="1"/>
+      <c r="CK262" s="1"/>
+      <c r="CL262" s="1"/>
+      <c r="CM262" s="1"/>
+      <c r="CN262" s="1"/>
+      <c r="CO262" s="1"/>
+      <c r="CP262" s="1"/>
+      <c r="CQ262" s="1"/>
+      <c r="CR262" s="1"/>
+      <c r="CS262" s="1"/>
+      <c r="CT262" s="1"/>
+      <c r="CU262" s="1"/>
+      <c r="CV262" s="1"/>
+      <c r="CW262" s="1"/>
     </row>
-    <row r="263" spans="1:101" s="21" customFormat="1">
-      <c r="A263" s="17" t="s">
+    <row r="263" spans="1:101">
+      <c r="A263" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B263" s="17">
+      <c r="B263" s="1">
         <v>2050048</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C263" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D263" s="17" t="s">
+      <c r="D263" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E263" s="17" t="s">
+      <c r="E263" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F263" s="17">
+      <c r="F263" s="1">
         <v>5</v>
       </c>
-      <c r="G263" s="17">
-        <v>1</v>
-      </c>
-      <c r="H263" s="17">
+      <c r="G263" s="1">
+        <v>1</v>
+      </c>
+      <c r="H263" s="1">
         <v>2.4</v>
       </c>
-      <c r="I263" s="23">
-        <v>1</v>
-      </c>
-      <c r="J263" s="18"/>
-      <c r="K263" s="19" t="s">
+      <c r="I263" s="15">
+        <v>1</v>
+      </c>
+      <c r="J263" s="11"/>
+      <c r="K263" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L263" s="17"/>
-      <c r="M263" s="17"/>
-      <c r="N263" s="17"/>
-      <c r="O263" s="17"/>
-      <c r="P263" s="17"/>
-      <c r="Q263" s="17"/>
-      <c r="R263" s="17"/>
-      <c r="S263" s="17"/>
-      <c r="T263" s="17"/>
-      <c r="U263" s="17"/>
-      <c r="V263" s="17"/>
-      <c r="W263" s="17"/>
-      <c r="X263" s="17"/>
-      <c r="Y263" s="17"/>
-      <c r="Z263" s="17"/>
-      <c r="AA263" s="17"/>
-      <c r="AB263" s="17"/>
-      <c r="AC263" s="17"/>
-      <c r="AD263" s="17"/>
-      <c r="AE263" s="17"/>
-      <c r="AF263" s="17"/>
-      <c r="AG263" s="17"/>
-      <c r="AH263" s="17"/>
-      <c r="AI263" s="17"/>
-      <c r="AJ263" s="17"/>
-      <c r="AK263" s="17"/>
-      <c r="AL263" s="17"/>
-      <c r="AM263" s="17"/>
-      <c r="AN263" s="17"/>
-      <c r="AO263" s="17"/>
-      <c r="AP263" s="17"/>
-      <c r="AQ263" s="17"/>
-      <c r="AR263" s="17"/>
-      <c r="AS263" s="17"/>
-      <c r="AT263" s="17"/>
-      <c r="AU263" s="17"/>
-      <c r="AV263" s="17"/>
-      <c r="AW263" s="17"/>
-      <c r="AX263" s="17"/>
-      <c r="AY263" s="17"/>
-      <c r="AZ263" s="17"/>
-      <c r="BA263" s="17"/>
-      <c r="BB263" s="17"/>
-      <c r="BC263" s="17"/>
-      <c r="BD263" s="17"/>
-      <c r="BE263" s="17"/>
-      <c r="BF263" s="17"/>
-      <c r="BG263" s="17"/>
-      <c r="BH263" s="17"/>
-      <c r="BI263" s="17"/>
-      <c r="BJ263" s="17"/>
-      <c r="BK263" s="17"/>
-      <c r="BL263" s="17"/>
-      <c r="BM263" s="17"/>
-      <c r="BN263" s="17"/>
-      <c r="BO263" s="17"/>
-      <c r="BP263" s="17"/>
-      <c r="BQ263" s="17"/>
-      <c r="BR263" s="17"/>
-      <c r="BS263" s="17"/>
-      <c r="BT263" s="17"/>
-      <c r="BU263" s="17"/>
-      <c r="BV263" s="17"/>
-      <c r="BW263" s="17"/>
-      <c r="BX263" s="17"/>
-      <c r="BY263" s="17"/>
-      <c r="BZ263" s="17"/>
-      <c r="CA263" s="17"/>
-      <c r="CB263" s="17"/>
-      <c r="CC263" s="17"/>
-      <c r="CD263" s="17"/>
-      <c r="CE263" s="17"/>
-      <c r="CF263" s="17"/>
-      <c r="CG263" s="17"/>
-      <c r="CH263" s="17"/>
-      <c r="CI263" s="17"/>
-      <c r="CJ263" s="17"/>
-      <c r="CK263" s="17"/>
-      <c r="CL263" s="17"/>
-      <c r="CM263" s="17"/>
-      <c r="CN263" s="17"/>
-      <c r="CO263" s="17"/>
-      <c r="CP263" s="17"/>
-      <c r="CQ263" s="17"/>
-      <c r="CR263" s="17"/>
-      <c r="CS263" s="17"/>
-      <c r="CT263" s="17"/>
-      <c r="CU263" s="17"/>
-      <c r="CV263" s="17"/>
-      <c r="CW263" s="17"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
+      <c r="W263" s="1"/>
+      <c r="X263" s="1"/>
+      <c r="Y263" s="1"/>
+      <c r="Z263" s="1"/>
+      <c r="AA263" s="1"/>
+      <c r="AB263" s="1"/>
+      <c r="AC263" s="1"/>
+      <c r="AD263" s="1"/>
+      <c r="AE263" s="1"/>
+      <c r="AF263" s="1"/>
+      <c r="AG263" s="1"/>
+      <c r="AH263" s="1"/>
+      <c r="AI263" s="1"/>
+      <c r="AJ263" s="1"/>
+      <c r="AK263" s="1"/>
+      <c r="AL263" s="1"/>
+      <c r="AM263" s="1"/>
+      <c r="AN263" s="1"/>
+      <c r="AO263" s="1"/>
+      <c r="AP263" s="1"/>
+      <c r="AQ263" s="1"/>
+      <c r="AR263" s="1"/>
+      <c r="AS263" s="1"/>
+      <c r="AT263" s="1"/>
+      <c r="AU263" s="1"/>
+      <c r="AV263" s="1"/>
+      <c r="AW263" s="1"/>
+      <c r="AX263" s="1"/>
+      <c r="AY263" s="1"/>
+      <c r="AZ263" s="1"/>
+      <c r="BA263" s="1"/>
+      <c r="BB263" s="1"/>
+      <c r="BC263" s="1"/>
+      <c r="BD263" s="1"/>
+      <c r="BE263" s="1"/>
+      <c r="BF263" s="1"/>
+      <c r="BG263" s="1"/>
+      <c r="BH263" s="1"/>
+      <c r="BI263" s="1"/>
+      <c r="BJ263" s="1"/>
+      <c r="BK263" s="1"/>
+      <c r="BL263" s="1"/>
+      <c r="BM263" s="1"/>
+      <c r="BN263" s="1"/>
+      <c r="BO263" s="1"/>
+      <c r="BP263" s="1"/>
+      <c r="BQ263" s="1"/>
+      <c r="BR263" s="1"/>
+      <c r="BS263" s="1"/>
+      <c r="BT263" s="1"/>
+      <c r="BU263" s="1"/>
+      <c r="BV263" s="1"/>
+      <c r="BW263" s="1"/>
+      <c r="BX263" s="1"/>
+      <c r="BY263" s="1"/>
+      <c r="BZ263" s="1"/>
+      <c r="CA263" s="1"/>
+      <c r="CB263" s="1"/>
+      <c r="CC263" s="1"/>
+      <c r="CD263" s="1"/>
+      <c r="CE263" s="1"/>
+      <c r="CF263" s="1"/>
+      <c r="CG263" s="1"/>
+      <c r="CH263" s="1"/>
+      <c r="CI263" s="1"/>
+      <c r="CJ263" s="1"/>
+      <c r="CK263" s="1"/>
+      <c r="CL263" s="1"/>
+      <c r="CM263" s="1"/>
+      <c r="CN263" s="1"/>
+      <c r="CO263" s="1"/>
+      <c r="CP263" s="1"/>
+      <c r="CQ263" s="1"/>
+      <c r="CR263" s="1"/>
+      <c r="CS263" s="1"/>
+      <c r="CT263" s="1"/>
+      <c r="CU263" s="1"/>
+      <c r="CV263" s="1"/>
+      <c r="CW263" s="1"/>
     </row>
-    <row r="264" spans="1:101" s="21" customFormat="1">
-      <c r="A264" s="17" t="s">
+    <row r="264" spans="1:101">
+      <c r="A264" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B264" s="17">
+      <c r="B264" s="1">
         <v>2050048</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="C264" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D264" s="17" t="s">
+      <c r="D264" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E264" s="17" t="s">
+      <c r="E264" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F264" s="17">
+      <c r="F264" s="1">
         <v>6</v>
       </c>
-      <c r="G264" s="17">
-        <v>1</v>
-      </c>
-      <c r="H264" s="17">
+      <c r="G264" s="1">
+        <v>1</v>
+      </c>
+      <c r="H264" s="1">
         <v>2.4</v>
       </c>
-      <c r="I264" s="23">
-        <v>1</v>
-      </c>
-      <c r="J264" s="18"/>
-      <c r="K264" s="19" t="s">
+      <c r="I264" s="15">
+        <v>1</v>
+      </c>
+      <c r="J264" s="11"/>
+      <c r="K264" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L264" s="17"/>
-      <c r="M264" s="17"/>
-      <c r="N264" s="17"/>
-      <c r="O264" s="17"/>
-      <c r="P264" s="17"/>
-      <c r="Q264" s="17"/>
-      <c r="R264" s="17"/>
-      <c r="S264" s="17"/>
-      <c r="T264" s="17"/>
-      <c r="U264" s="17"/>
-      <c r="V264" s="17"/>
-      <c r="W264" s="17"/>
-      <c r="X264" s="17"/>
-      <c r="Y264" s="17"/>
-      <c r="Z264" s="17"/>
-      <c r="AA264" s="17"/>
-      <c r="AB264" s="17"/>
-      <c r="AC264" s="17"/>
-      <c r="AD264" s="17"/>
-      <c r="AE264" s="17"/>
-      <c r="AF264" s="17"/>
-      <c r="AG264" s="17"/>
-      <c r="AH264" s="17"/>
-      <c r="AI264" s="17"/>
-      <c r="AJ264" s="17"/>
-      <c r="AK264" s="17"/>
-      <c r="AL264" s="17"/>
-      <c r="AM264" s="17"/>
-      <c r="AN264" s="17"/>
-      <c r="AO264" s="17"/>
-      <c r="AP264" s="17"/>
-      <c r="AQ264" s="17"/>
-      <c r="AR264" s="17"/>
-      <c r="AS264" s="17"/>
-      <c r="AT264" s="17"/>
-      <c r="AU264" s="17"/>
-      <c r="AV264" s="17"/>
-      <c r="AW264" s="17"/>
-      <c r="AX264" s="17"/>
-      <c r="AY264" s="17"/>
-      <c r="AZ264" s="17"/>
-      <c r="BA264" s="17"/>
-      <c r="BB264" s="17"/>
-      <c r="BC264" s="17"/>
-      <c r="BD264" s="17"/>
-      <c r="BE264" s="17"/>
-      <c r="BF264" s="17"/>
-      <c r="BG264" s="17"/>
-      <c r="BH264" s="17"/>
-      <c r="BI264" s="17"/>
-      <c r="BJ264" s="17"/>
-      <c r="BK264" s="17"/>
-      <c r="BL264" s="17"/>
-      <c r="BM264" s="17"/>
-      <c r="BN264" s="17"/>
-      <c r="BO264" s="17"/>
-      <c r="BP264" s="17"/>
-      <c r="BQ264" s="17"/>
-      <c r="BR264" s="17"/>
-      <c r="BS264" s="17"/>
-      <c r="BT264" s="17"/>
-      <c r="BU264" s="17"/>
-      <c r="BV264" s="17"/>
-      <c r="BW264" s="17"/>
-      <c r="BX264" s="17"/>
-      <c r="BY264" s="17"/>
-      <c r="BZ264" s="17"/>
-      <c r="CA264" s="17"/>
-      <c r="CB264" s="17"/>
-      <c r="CC264" s="17"/>
-      <c r="CD264" s="17"/>
-      <c r="CE264" s="17"/>
-      <c r="CF264" s="17"/>
-      <c r="CG264" s="17"/>
-      <c r="CH264" s="17"/>
-      <c r="CI264" s="17"/>
-      <c r="CJ264" s="17"/>
-      <c r="CK264" s="17"/>
-      <c r="CL264" s="17"/>
-      <c r="CM264" s="17"/>
-      <c r="CN264" s="17"/>
-      <c r="CO264" s="17"/>
-      <c r="CP264" s="17"/>
-      <c r="CQ264" s="17"/>
-      <c r="CR264" s="17"/>
-      <c r="CS264" s="17"/>
-      <c r="CT264" s="17"/>
-      <c r="CU264" s="17"/>
-      <c r="CV264" s="17"/>
-      <c r="CW264" s="17"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+      <c r="W264" s="1"/>
+      <c r="X264" s="1"/>
+      <c r="Y264" s="1"/>
+      <c r="Z264" s="1"/>
+      <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
+      <c r="AC264" s="1"/>
+      <c r="AD264" s="1"/>
+      <c r="AE264" s="1"/>
+      <c r="AF264" s="1"/>
+      <c r="AG264" s="1"/>
+      <c r="AH264" s="1"/>
+      <c r="AI264" s="1"/>
+      <c r="AJ264" s="1"/>
+      <c r="AK264" s="1"/>
+      <c r="AL264" s="1"/>
+      <c r="AM264" s="1"/>
+      <c r="AN264" s="1"/>
+      <c r="AO264" s="1"/>
+      <c r="AP264" s="1"/>
+      <c r="AQ264" s="1"/>
+      <c r="AR264" s="1"/>
+      <c r="AS264" s="1"/>
+      <c r="AT264" s="1"/>
+      <c r="AU264" s="1"/>
+      <c r="AV264" s="1"/>
+      <c r="AW264" s="1"/>
+      <c r="AX264" s="1"/>
+      <c r="AY264" s="1"/>
+      <c r="AZ264" s="1"/>
+      <c r="BA264" s="1"/>
+      <c r="BB264" s="1"/>
+      <c r="BC264" s="1"/>
+      <c r="BD264" s="1"/>
+      <c r="BE264" s="1"/>
+      <c r="BF264" s="1"/>
+      <c r="BG264" s="1"/>
+      <c r="BH264" s="1"/>
+      <c r="BI264" s="1"/>
+      <c r="BJ264" s="1"/>
+      <c r="BK264" s="1"/>
+      <c r="BL264" s="1"/>
+      <c r="BM264" s="1"/>
+      <c r="BN264" s="1"/>
+      <c r="BO264" s="1"/>
+      <c r="BP264" s="1"/>
+      <c r="BQ264" s="1"/>
+      <c r="BR264" s="1"/>
+      <c r="BS264" s="1"/>
+      <c r="BT264" s="1"/>
+      <c r="BU264" s="1"/>
+      <c r="BV264" s="1"/>
+      <c r="BW264" s="1"/>
+      <c r="BX264" s="1"/>
+      <c r="BY264" s="1"/>
+      <c r="BZ264" s="1"/>
+      <c r="CA264" s="1"/>
+      <c r="CB264" s="1"/>
+      <c r="CC264" s="1"/>
+      <c r="CD264" s="1"/>
+      <c r="CE264" s="1"/>
+      <c r="CF264" s="1"/>
+      <c r="CG264" s="1"/>
+      <c r="CH264" s="1"/>
+      <c r="CI264" s="1"/>
+      <c r="CJ264" s="1"/>
+      <c r="CK264" s="1"/>
+      <c r="CL264" s="1"/>
+      <c r="CM264" s="1"/>
+      <c r="CN264" s="1"/>
+      <c r="CO264" s="1"/>
+      <c r="CP264" s="1"/>
+      <c r="CQ264" s="1"/>
+      <c r="CR264" s="1"/>
+      <c r="CS264" s="1"/>
+      <c r="CT264" s="1"/>
+      <c r="CU264" s="1"/>
+      <c r="CV264" s="1"/>
+      <c r="CW264" s="1"/>
     </row>
-    <row r="265" spans="1:101" s="21" customFormat="1">
-      <c r="A265" s="17" t="s">
+    <row r="265" spans="1:101">
+      <c r="A265" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B265" s="17">
+      <c r="B265" s="1">
         <v>2050048</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D265" s="17" t="s">
+      <c r="D265" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E265" s="17" t="s">
+      <c r="E265" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F265" s="17">
+      <c r="F265" s="1">
         <v>7</v>
       </c>
-      <c r="G265" s="17">
-        <v>1</v>
-      </c>
-      <c r="H265" s="17">
+      <c r="G265" s="1">
+        <v>1</v>
+      </c>
+      <c r="H265" s="1">
         <v>2.4</v>
       </c>
-      <c r="I265" s="23">
-        <v>1</v>
-      </c>
-      <c r="J265" s="18"/>
-      <c r="K265" s="19" t="s">
+      <c r="I265" s="15">
+        <v>1</v>
+      </c>
+      <c r="J265" s="11"/>
+      <c r="K265" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L265" s="17"/>
-      <c r="M265" s="17"/>
-      <c r="N265" s="17"/>
-      <c r="O265" s="17"/>
-      <c r="P265" s="17"/>
-      <c r="Q265" s="17"/>
-      <c r="R265" s="17"/>
-      <c r="S265" s="17"/>
-      <c r="T265" s="17"/>
-      <c r="U265" s="17"/>
-      <c r="V265" s="17"/>
-      <c r="W265" s="17"/>
-      <c r="X265" s="17"/>
-      <c r="Y265" s="17"/>
-      <c r="Z265" s="17"/>
-      <c r="AA265" s="17"/>
-      <c r="AB265" s="17"/>
-      <c r="AC265" s="17"/>
-      <c r="AD265" s="17"/>
-      <c r="AE265" s="17"/>
-      <c r="AF265" s="17"/>
-      <c r="AG265" s="17"/>
-      <c r="AH265" s="17"/>
-      <c r="AI265" s="17"/>
-      <c r="AJ265" s="17"/>
-      <c r="AK265" s="17"/>
-      <c r="AL265" s="17"/>
-      <c r="AM265" s="17"/>
-      <c r="AN265" s="17"/>
-      <c r="AO265" s="17"/>
-      <c r="AP265" s="17"/>
-      <c r="AQ265" s="17"/>
-      <c r="AR265" s="17"/>
-      <c r="AS265" s="17"/>
-      <c r="AT265" s="17"/>
-      <c r="AU265" s="17"/>
-      <c r="AV265" s="17"/>
-      <c r="AW265" s="17"/>
-      <c r="AX265" s="17"/>
-      <c r="AY265" s="17"/>
-      <c r="AZ265" s="17"/>
-      <c r="BA265" s="17"/>
-      <c r="BB265" s="17"/>
-      <c r="BC265" s="17"/>
-      <c r="BD265" s="17"/>
-      <c r="BE265" s="17"/>
-      <c r="BF265" s="17"/>
-      <c r="BG265" s="17"/>
-      <c r="BH265" s="17"/>
-      <c r="BI265" s="17"/>
-      <c r="BJ265" s="17"/>
-      <c r="BK265" s="17"/>
-      <c r="BL265" s="17"/>
-      <c r="BM265" s="17"/>
-      <c r="BN265" s="17"/>
-      <c r="BO265" s="17"/>
-      <c r="BP265" s="17"/>
-      <c r="BQ265" s="17"/>
-      <c r="BR265" s="17"/>
-      <c r="BS265" s="17"/>
-      <c r="BT265" s="17"/>
-      <c r="BU265" s="17"/>
-      <c r="BV265" s="17"/>
-      <c r="BW265" s="17"/>
-      <c r="BX265" s="17"/>
-      <c r="BY265" s="17"/>
-      <c r="BZ265" s="17"/>
-      <c r="CA265" s="17"/>
-      <c r="CB265" s="17"/>
-      <c r="CC265" s="17"/>
-      <c r="CD265" s="17"/>
-      <c r="CE265" s="17"/>
-      <c r="CF265" s="17"/>
-      <c r="CG265" s="17"/>
-      <c r="CH265" s="17"/>
-      <c r="CI265" s="17"/>
-      <c r="CJ265" s="17"/>
-      <c r="CK265" s="17"/>
-      <c r="CL265" s="17"/>
-      <c r="CM265" s="17"/>
-      <c r="CN265" s="17"/>
-      <c r="CO265" s="17"/>
-      <c r="CP265" s="17"/>
-      <c r="CQ265" s="17"/>
-      <c r="CR265" s="17"/>
-      <c r="CS265" s="17"/>
-      <c r="CT265" s="17"/>
-      <c r="CU265" s="17"/>
-      <c r="CV265" s="17"/>
-      <c r="CW265" s="17"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
+      <c r="W265" s="1"/>
+      <c r="X265" s="1"/>
+      <c r="Y265" s="1"/>
+      <c r="Z265" s="1"/>
+      <c r="AA265" s="1"/>
+      <c r="AB265" s="1"/>
+      <c r="AC265" s="1"/>
+      <c r="AD265" s="1"/>
+      <c r="AE265" s="1"/>
+      <c r="AF265" s="1"/>
+      <c r="AG265" s="1"/>
+      <c r="AH265" s="1"/>
+      <c r="AI265" s="1"/>
+      <c r="AJ265" s="1"/>
+      <c r="AK265" s="1"/>
+      <c r="AL265" s="1"/>
+      <c r="AM265" s="1"/>
+      <c r="AN265" s="1"/>
+      <c r="AO265" s="1"/>
+      <c r="AP265" s="1"/>
+      <c r="AQ265" s="1"/>
+      <c r="AR265" s="1"/>
+      <c r="AS265" s="1"/>
+      <c r="AT265" s="1"/>
+      <c r="AU265" s="1"/>
+      <c r="AV265" s="1"/>
+      <c r="AW265" s="1"/>
+      <c r="AX265" s="1"/>
+      <c r="AY265" s="1"/>
+      <c r="AZ265" s="1"/>
+      <c r="BA265" s="1"/>
+      <c r="BB265" s="1"/>
+      <c r="BC265" s="1"/>
+      <c r="BD265" s="1"/>
+      <c r="BE265" s="1"/>
+      <c r="BF265" s="1"/>
+      <c r="BG265" s="1"/>
+      <c r="BH265" s="1"/>
+      <c r="BI265" s="1"/>
+      <c r="BJ265" s="1"/>
+      <c r="BK265" s="1"/>
+      <c r="BL265" s="1"/>
+      <c r="BM265" s="1"/>
+      <c r="BN265" s="1"/>
+      <c r="BO265" s="1"/>
+      <c r="BP265" s="1"/>
+      <c r="BQ265" s="1"/>
+      <c r="BR265" s="1"/>
+      <c r="BS265" s="1"/>
+      <c r="BT265" s="1"/>
+      <c r="BU265" s="1"/>
+      <c r="BV265" s="1"/>
+      <c r="BW265" s="1"/>
+      <c r="BX265" s="1"/>
+      <c r="BY265" s="1"/>
+      <c r="BZ265" s="1"/>
+      <c r="CA265" s="1"/>
+      <c r="CB265" s="1"/>
+      <c r="CC265" s="1"/>
+      <c r="CD265" s="1"/>
+      <c r="CE265" s="1"/>
+      <c r="CF265" s="1"/>
+      <c r="CG265" s="1"/>
+      <c r="CH265" s="1"/>
+      <c r="CI265" s="1"/>
+      <c r="CJ265" s="1"/>
+      <c r="CK265" s="1"/>
+      <c r="CL265" s="1"/>
+      <c r="CM265" s="1"/>
+      <c r="CN265" s="1"/>
+      <c r="CO265" s="1"/>
+      <c r="CP265" s="1"/>
+      <c r="CQ265" s="1"/>
+      <c r="CR265" s="1"/>
+      <c r="CS265" s="1"/>
+      <c r="CT265" s="1"/>
+      <c r="CU265" s="1"/>
+      <c r="CV265" s="1"/>
+      <c r="CW265" s="1"/>
     </row>
-    <row r="266" spans="1:101" s="21" customFormat="1">
-      <c r="A266" s="17" t="s">
+    <row r="266" spans="1:101">
+      <c r="A266" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B266" s="17">
+      <c r="B266" s="1">
         <v>2050048</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D266" s="17" t="s">
+      <c r="D266" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E266" s="17" t="s">
+      <c r="E266" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F266" s="17">
+      <c r="F266" s="1">
         <v>8</v>
       </c>
-      <c r="G266" s="17">
-        <v>1</v>
-      </c>
-      <c r="H266" s="17">
+      <c r="G266" s="1">
+        <v>1</v>
+      </c>
+      <c r="H266" s="1">
         <v>2.4</v>
       </c>
-      <c r="I266" s="23">
-        <v>1</v>
-      </c>
-      <c r="J266" s="18"/>
-      <c r="K266" s="19" t="s">
+      <c r="I266" s="15">
+        <v>1</v>
+      </c>
+      <c r="J266" s="11"/>
+      <c r="K266" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L266" s="17"/>
-      <c r="M266" s="17"/>
-      <c r="N266" s="17"/>
-      <c r="O266" s="17"/>
-      <c r="P266" s="17"/>
-      <c r="Q266" s="17"/>
-      <c r="R266" s="17"/>
-      <c r="S266" s="17"/>
-      <c r="T266" s="17"/>
-      <c r="U266" s="17"/>
-      <c r="V266" s="17"/>
-      <c r="W266" s="17"/>
-      <c r="X266" s="17"/>
-      <c r="Y266" s="17"/>
-      <c r="Z266" s="17"/>
-      <c r="AA266" s="17"/>
-      <c r="AB266" s="17"/>
-      <c r="AC266" s="17"/>
-      <c r="AD266" s="17"/>
-      <c r="AE266" s="17"/>
-      <c r="AF266" s="17"/>
-      <c r="AG266" s="17"/>
-      <c r="AH266" s="17"/>
-      <c r="AI266" s="17"/>
-      <c r="AJ266" s="17"/>
-      <c r="AK266" s="17"/>
-      <c r="AL266" s="17"/>
-      <c r="AM266" s="17"/>
-      <c r="AN266" s="17"/>
-      <c r="AO266" s="17"/>
-      <c r="AP266" s="17"/>
-      <c r="AQ266" s="17"/>
-      <c r="AR266" s="17"/>
-      <c r="AS266" s="17"/>
-      <c r="AT266" s="17"/>
-      <c r="AU266" s="17"/>
-      <c r="AV266" s="17"/>
-      <c r="AW266" s="17"/>
-      <c r="AX266" s="17"/>
-      <c r="AY266" s="17"/>
-      <c r="AZ266" s="17"/>
-      <c r="BA266" s="17"/>
-      <c r="BB266" s="17"/>
-      <c r="BC266" s="17"/>
-      <c r="BD266" s="17"/>
-      <c r="BE266" s="17"/>
-      <c r="BF266" s="17"/>
-      <c r="BG266" s="17"/>
-      <c r="BH266" s="17"/>
-      <c r="BI266" s="17"/>
-      <c r="BJ266" s="17"/>
-      <c r="BK266" s="17"/>
-      <c r="BL266" s="17"/>
-      <c r="BM266" s="17"/>
-      <c r="BN266" s="17"/>
-      <c r="BO266" s="17"/>
-      <c r="BP266" s="17"/>
-      <c r="BQ266" s="17"/>
-      <c r="BR266" s="17"/>
-      <c r="BS266" s="17"/>
-      <c r="BT266" s="17"/>
-      <c r="BU266" s="17"/>
-      <c r="BV266" s="17"/>
-      <c r="BW266" s="17"/>
-      <c r="BX266" s="17"/>
-      <c r="BY266" s="17"/>
-      <c r="BZ266" s="17"/>
-      <c r="CA266" s="17"/>
-      <c r="CB266" s="17"/>
-      <c r="CC266" s="17"/>
-      <c r="CD266" s="17"/>
-      <c r="CE266" s="17"/>
-      <c r="CF266" s="17"/>
-      <c r="CG266" s="17"/>
-      <c r="CH266" s="17"/>
-      <c r="CI266" s="17"/>
-      <c r="CJ266" s="17"/>
-      <c r="CK266" s="17"/>
-      <c r="CL266" s="17"/>
-      <c r="CM266" s="17"/>
-      <c r="CN266" s="17"/>
-      <c r="CO266" s="17"/>
-      <c r="CP266" s="17"/>
-      <c r="CQ266" s="17"/>
-      <c r="CR266" s="17"/>
-      <c r="CS266" s="17"/>
-      <c r="CT266" s="17"/>
-      <c r="CU266" s="17"/>
-      <c r="CV266" s="17"/>
-      <c r="CW266" s="17"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+      <c r="U266" s="1"/>
+      <c r="V266" s="1"/>
+      <c r="W266" s="1"/>
+      <c r="X266" s="1"/>
+      <c r="Y266" s="1"/>
+      <c r="Z266" s="1"/>
+      <c r="AA266" s="1"/>
+      <c r="AB266" s="1"/>
+      <c r="AC266" s="1"/>
+      <c r="AD266" s="1"/>
+      <c r="AE266" s="1"/>
+      <c r="AF266" s="1"/>
+      <c r="AG266" s="1"/>
+      <c r="AH266" s="1"/>
+      <c r="AI266" s="1"/>
+      <c r="AJ266" s="1"/>
+      <c r="AK266" s="1"/>
+      <c r="AL266" s="1"/>
+      <c r="AM266" s="1"/>
+      <c r="AN266" s="1"/>
+      <c r="AO266" s="1"/>
+      <c r="AP266" s="1"/>
+      <c r="AQ266" s="1"/>
+      <c r="AR266" s="1"/>
+      <c r="AS266" s="1"/>
+      <c r="AT266" s="1"/>
+      <c r="AU266" s="1"/>
+      <c r="AV266" s="1"/>
+      <c r="AW266" s="1"/>
+      <c r="AX266" s="1"/>
+      <c r="AY266" s="1"/>
+      <c r="AZ266" s="1"/>
+      <c r="BA266" s="1"/>
+      <c r="BB266" s="1"/>
+      <c r="BC266" s="1"/>
+      <c r="BD266" s="1"/>
+      <c r="BE266" s="1"/>
+      <c r="BF266" s="1"/>
+      <c r="BG266" s="1"/>
+      <c r="BH266" s="1"/>
+      <c r="BI266" s="1"/>
+      <c r="BJ266" s="1"/>
+      <c r="BK266" s="1"/>
+      <c r="BL266" s="1"/>
+      <c r="BM266" s="1"/>
+      <c r="BN266" s="1"/>
+      <c r="BO266" s="1"/>
+      <c r="BP266" s="1"/>
+      <c r="BQ266" s="1"/>
+      <c r="BR266" s="1"/>
+      <c r="BS266" s="1"/>
+      <c r="BT266" s="1"/>
+      <c r="BU266" s="1"/>
+      <c r="BV266" s="1"/>
+      <c r="BW266" s="1"/>
+      <c r="BX266" s="1"/>
+      <c r="BY266" s="1"/>
+      <c r="BZ266" s="1"/>
+      <c r="CA266" s="1"/>
+      <c r="CB266" s="1"/>
+      <c r="CC266" s="1"/>
+      <c r="CD266" s="1"/>
+      <c r="CE266" s="1"/>
+      <c r="CF266" s="1"/>
+      <c r="CG266" s="1"/>
+      <c r="CH266" s="1"/>
+      <c r="CI266" s="1"/>
+      <c r="CJ266" s="1"/>
+      <c r="CK266" s="1"/>
+      <c r="CL266" s="1"/>
+      <c r="CM266" s="1"/>
+      <c r="CN266" s="1"/>
+      <c r="CO266" s="1"/>
+      <c r="CP266" s="1"/>
+      <c r="CQ266" s="1"/>
+      <c r="CR266" s="1"/>
+      <c r="CS266" s="1"/>
+      <c r="CT266" s="1"/>
+      <c r="CU266" s="1"/>
+      <c r="CV266" s="1"/>
+      <c r="CW266" s="1"/>
     </row>
-    <row r="267" spans="1:101" s="21" customFormat="1">
-      <c r="A267" s="17" t="s">
+    <row r="267" spans="1:101">
+      <c r="A267" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B267" s="17">
+      <c r="B267" s="1">
         <v>2050048</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D267" s="17" t="s">
+      <c r="D267" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E267" s="17" t="s">
+      <c r="E267" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F267" s="17">
+      <c r="F267" s="1">
         <v>9</v>
       </c>
-      <c r="G267" s="17">
-        <v>1</v>
-      </c>
-      <c r="H267" s="17">
+      <c r="G267" s="1">
+        <v>1</v>
+      </c>
+      <c r="H267" s="1">
         <v>2.4</v>
       </c>
-      <c r="I267" s="23">
-        <v>1</v>
-      </c>
-      <c r="J267" s="18"/>
-      <c r="K267" s="19" t="s">
+      <c r="I267" s="15">
+        <v>1</v>
+      </c>
+      <c r="J267" s="11"/>
+      <c r="K267" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L267" s="17"/>
-      <c r="M267" s="17"/>
-      <c r="N267" s="17"/>
-      <c r="O267" s="17"/>
-      <c r="P267" s="17"/>
-      <c r="Q267" s="17"/>
-      <c r="R267" s="17"/>
-      <c r="S267" s="17"/>
-      <c r="T267" s="17"/>
-      <c r="U267" s="17"/>
-      <c r="V267" s="17"/>
-      <c r="W267" s="17"/>
-      <c r="X267" s="17"/>
-      <c r="Y267" s="17"/>
-      <c r="Z267" s="17"/>
-      <c r="AA267" s="17"/>
-      <c r="AB267" s="17"/>
-      <c r="AC267" s="17"/>
-      <c r="AD267" s="17"/>
-      <c r="AE267" s="17"/>
-      <c r="AF267" s="17"/>
-      <c r="AG267" s="17"/>
-      <c r="AH267" s="17"/>
-      <c r="AI267" s="17"/>
-      <c r="AJ267" s="17"/>
-      <c r="AK267" s="17"/>
-      <c r="AL267" s="17"/>
-      <c r="AM267" s="17"/>
-      <c r="AN267" s="17"/>
-      <c r="AO267" s="17"/>
-      <c r="AP267" s="17"/>
-      <c r="AQ267" s="17"/>
-      <c r="AR267" s="17"/>
-      <c r="AS267" s="17"/>
-      <c r="AT267" s="17"/>
-      <c r="AU267" s="17"/>
-      <c r="AV267" s="17"/>
-      <c r="AW267" s="17"/>
-      <c r="AX267" s="17"/>
-      <c r="AY267" s="17"/>
-      <c r="AZ267" s="17"/>
-      <c r="BA267" s="17"/>
-      <c r="BB267" s="17"/>
-      <c r="BC267" s="17"/>
-      <c r="BD267" s="17"/>
-      <c r="BE267" s="17"/>
-      <c r="BF267" s="17"/>
-      <c r="BG267" s="17"/>
-      <c r="BH267" s="17"/>
-      <c r="BI267" s="17"/>
-      <c r="BJ267" s="17"/>
-      <c r="BK267" s="17"/>
-      <c r="BL267" s="17"/>
-      <c r="BM267" s="20"/>
-      <c r="BN267" s="17"/>
-      <c r="BO267" s="17"/>
-      <c r="BP267" s="17"/>
-      <c r="BQ267" s="17"/>
-      <c r="BR267" s="17"/>
-      <c r="BS267" s="17"/>
-      <c r="BT267" s="17"/>
-      <c r="BU267" s="17"/>
-      <c r="BV267" s="17"/>
-      <c r="BW267" s="17"/>
-      <c r="BX267" s="17"/>
-      <c r="BY267" s="17"/>
-      <c r="BZ267" s="17"/>
-      <c r="CA267" s="17"/>
-      <c r="CB267" s="17"/>
-      <c r="CC267" s="17"/>
-      <c r="CD267" s="17"/>
-      <c r="CE267" s="17"/>
-      <c r="CF267" s="17"/>
-      <c r="CG267" s="17"/>
-      <c r="CH267" s="17"/>
-      <c r="CI267" s="17"/>
-      <c r="CJ267" s="17"/>
-      <c r="CK267" s="17"/>
-      <c r="CL267" s="17"/>
-      <c r="CM267" s="17"/>
-      <c r="CN267" s="17"/>
-      <c r="CO267" s="17"/>
-      <c r="CP267" s="17"/>
-      <c r="CQ267" s="17"/>
-      <c r="CR267" s="17"/>
-      <c r="CS267" s="17"/>
-      <c r="CT267" s="17"/>
-      <c r="CU267" s="17"/>
-      <c r="CV267" s="17"/>
-      <c r="CW267" s="17"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="1"/>
+      <c r="W267" s="1"/>
+      <c r="X267" s="1"/>
+      <c r="Y267" s="1"/>
+      <c r="Z267" s="1"/>
+      <c r="AA267" s="1"/>
+      <c r="AB267" s="1"/>
+      <c r="AC267" s="1"/>
+      <c r="AD267" s="1"/>
+      <c r="AE267" s="1"/>
+      <c r="AF267" s="1"/>
+      <c r="AG267" s="1"/>
+      <c r="AH267" s="1"/>
+      <c r="AI267" s="1"/>
+      <c r="AJ267" s="1"/>
+      <c r="AK267" s="1"/>
+      <c r="AL267" s="1"/>
+      <c r="AM267" s="1"/>
+      <c r="AN267" s="1"/>
+      <c r="AO267" s="1"/>
+      <c r="AP267" s="1"/>
+      <c r="AQ267" s="1"/>
+      <c r="AR267" s="1"/>
+      <c r="AS267" s="1"/>
+      <c r="AT267" s="1"/>
+      <c r="AU267" s="1"/>
+      <c r="AV267" s="1"/>
+      <c r="AW267" s="1"/>
+      <c r="AX267" s="1"/>
+      <c r="AY267" s="1"/>
+      <c r="AZ267" s="1"/>
+      <c r="BA267" s="1"/>
+      <c r="BB267" s="1"/>
+      <c r="BC267" s="1"/>
+      <c r="BD267" s="1"/>
+      <c r="BE267" s="1"/>
+      <c r="BF267" s="1"/>
+      <c r="BG267" s="1"/>
+      <c r="BH267" s="1"/>
+      <c r="BI267" s="1"/>
+      <c r="BJ267" s="1"/>
+      <c r="BK267" s="1"/>
+      <c r="BL267" s="1"/>
+      <c r="BM267" s="8"/>
+      <c r="BN267" s="1"/>
+      <c r="BO267" s="1"/>
+      <c r="BP267" s="1"/>
+      <c r="BQ267" s="1"/>
+      <c r="BR267" s="1"/>
+      <c r="BS267" s="1"/>
+      <c r="BT267" s="1"/>
+      <c r="BU267" s="1"/>
+      <c r="BV267" s="1"/>
+      <c r="BW267" s="1"/>
+      <c r="BX267" s="1"/>
+      <c r="BY267" s="1"/>
+      <c r="BZ267" s="1"/>
+      <c r="CA267" s="1"/>
+      <c r="CB267" s="1"/>
+      <c r="CC267" s="1"/>
+      <c r="CD267" s="1"/>
+      <c r="CE267" s="1"/>
+      <c r="CF267" s="1"/>
+      <c r="CG267" s="1"/>
+      <c r="CH267" s="1"/>
+      <c r="CI267" s="1"/>
+      <c r="CJ267" s="1"/>
+      <c r="CK267" s="1"/>
+      <c r="CL267" s="1"/>
+      <c r="CM267" s="1"/>
+      <c r="CN267" s="1"/>
+      <c r="CO267" s="1"/>
+      <c r="CP267" s="1"/>
+      <c r="CQ267" s="1"/>
+      <c r="CR267" s="1"/>
+      <c r="CS267" s="1"/>
+      <c r="CT267" s="1"/>
+      <c r="CU267" s="1"/>
+      <c r="CV267" s="1"/>
+      <c r="CW267" s="1"/>
     </row>
     <row r="268" spans="1:101">
       <c r="A268" s="1" t="s">
@@ -48105,499 +48108,499 @@
       <c r="CV368" s="1"/>
       <c r="CW368" s="1"/>
     </row>
-    <row r="369" spans="1:101" s="21" customFormat="1">
-      <c r="A369" s="17" t="s">
+    <row r="369" spans="1:101">
+      <c r="A369" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B369" s="17">
+      <c r="B369" s="1">
         <v>2060019</v>
       </c>
-      <c r="C369" s="17" t="s">
+      <c r="C369" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D369" s="17" t="s">
+      <c r="D369" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E369" s="17" t="s">
+      <c r="E369" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F369" s="17">
-        <v>1</v>
-      </c>
-      <c r="G369" s="17">
-        <v>1</v>
-      </c>
-      <c r="H369" s="17">
+      <c r="F369" s="1">
+        <v>1</v>
+      </c>
+      <c r="G369" s="1">
+        <v>1</v>
+      </c>
+      <c r="H369" s="1">
         <v>3.6</v>
       </c>
-      <c r="I369" s="23">
-        <v>1</v>
-      </c>
-      <c r="J369" s="19" t="s">
+      <c r="I369" s="15">
+        <v>1</v>
+      </c>
+      <c r="J369" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K369" s="19" t="s">
+      <c r="K369" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L369" s="17"/>
-      <c r="M369" s="17"/>
-      <c r="N369" s="17"/>
-      <c r="O369" s="17"/>
-      <c r="P369" s="17"/>
-      <c r="Q369" s="17"/>
-      <c r="R369" s="17"/>
-      <c r="S369" s="17"/>
-      <c r="T369" s="17"/>
-      <c r="U369" s="17"/>
-      <c r="V369" s="17"/>
-      <c r="W369" s="17"/>
-      <c r="X369" s="17"/>
-      <c r="Y369" s="17"/>
-      <c r="Z369" s="17"/>
-      <c r="AA369" s="17"/>
-      <c r="AB369" s="17"/>
-      <c r="AC369" s="17"/>
-      <c r="AD369" s="17"/>
-      <c r="AE369" s="17"/>
-      <c r="AF369" s="17"/>
-      <c r="AG369" s="17"/>
-      <c r="AH369" s="17"/>
-      <c r="AI369" s="17"/>
-      <c r="AJ369" s="17"/>
-      <c r="AK369" s="17"/>
-      <c r="AL369" s="17"/>
-      <c r="AM369" s="17"/>
-      <c r="AN369" s="17"/>
-      <c r="AO369" s="17"/>
-      <c r="AP369" s="17"/>
-      <c r="AQ369" s="17"/>
-      <c r="AR369" s="17"/>
-      <c r="AS369" s="17"/>
-      <c r="AT369" s="17"/>
-      <c r="AU369" s="17"/>
-      <c r="AV369" s="17"/>
-      <c r="AW369" s="17"/>
-      <c r="AX369" s="17"/>
-      <c r="AY369" s="17"/>
-      <c r="AZ369" s="17"/>
-      <c r="BA369" s="17"/>
-      <c r="BB369" s="17"/>
-      <c r="BC369" s="17"/>
-      <c r="BD369" s="17"/>
-      <c r="BE369" s="17"/>
-      <c r="BF369" s="17"/>
-      <c r="BG369" s="17"/>
-      <c r="BH369" s="17"/>
-      <c r="BI369" s="17"/>
-      <c r="BJ369" s="17"/>
-      <c r="BK369" s="17"/>
-      <c r="BL369" s="17"/>
-      <c r="BM369" s="17"/>
-      <c r="BN369" s="17"/>
-      <c r="BO369" s="17"/>
-      <c r="BP369" s="17"/>
-      <c r="BQ369" s="17"/>
-      <c r="BR369" s="17"/>
-      <c r="BS369" s="17"/>
-      <c r="BT369" s="17"/>
-      <c r="BU369" s="17"/>
-      <c r="BV369" s="17"/>
-      <c r="BW369" s="17"/>
-      <c r="BX369" s="17"/>
-      <c r="BY369" s="17"/>
-      <c r="BZ369" s="17"/>
-      <c r="CA369" s="17"/>
-      <c r="CB369" s="17"/>
-      <c r="CC369" s="17"/>
-      <c r="CD369" s="17"/>
-      <c r="CE369" s="17"/>
-      <c r="CF369" s="17"/>
-      <c r="CG369" s="17"/>
-      <c r="CH369" s="17"/>
-      <c r="CI369" s="17"/>
-      <c r="CJ369" s="17"/>
-      <c r="CK369" s="17"/>
-      <c r="CL369" s="17"/>
-      <c r="CM369" s="17"/>
-      <c r="CN369" s="17"/>
-      <c r="CO369" s="17"/>
-      <c r="CP369" s="17"/>
-      <c r="CQ369" s="17"/>
-      <c r="CR369" s="17"/>
-      <c r="CS369" s="17"/>
-      <c r="CT369" s="17"/>
-      <c r="CU369" s="17"/>
-      <c r="CV369" s="17"/>
-      <c r="CW369" s="17"/>
+      <c r="L369" s="1"/>
+      <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
+      <c r="O369" s="1"/>
+      <c r="P369" s="1"/>
+      <c r="Q369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="S369" s="1"/>
+      <c r="T369" s="1"/>
+      <c r="U369" s="1"/>
+      <c r="V369" s="1"/>
+      <c r="W369" s="1"/>
+      <c r="X369" s="1"/>
+      <c r="Y369" s="1"/>
+      <c r="Z369" s="1"/>
+      <c r="AA369" s="1"/>
+      <c r="AB369" s="1"/>
+      <c r="AC369" s="1"/>
+      <c r="AD369" s="1"/>
+      <c r="AE369" s="1"/>
+      <c r="AF369" s="1"/>
+      <c r="AG369" s="1"/>
+      <c r="AH369" s="1"/>
+      <c r="AI369" s="1"/>
+      <c r="AJ369" s="1"/>
+      <c r="AK369" s="1"/>
+      <c r="AL369" s="1"/>
+      <c r="AM369" s="1"/>
+      <c r="AN369" s="1"/>
+      <c r="AO369" s="1"/>
+      <c r="AP369" s="1"/>
+      <c r="AQ369" s="1"/>
+      <c r="AR369" s="1"/>
+      <c r="AS369" s="1"/>
+      <c r="AT369" s="1"/>
+      <c r="AU369" s="1"/>
+      <c r="AV369" s="1"/>
+      <c r="AW369" s="1"/>
+      <c r="AX369" s="1"/>
+      <c r="AY369" s="1"/>
+      <c r="AZ369" s="1"/>
+      <c r="BA369" s="1"/>
+      <c r="BB369" s="1"/>
+      <c r="BC369" s="1"/>
+      <c r="BD369" s="1"/>
+      <c r="BE369" s="1"/>
+      <c r="BF369" s="1"/>
+      <c r="BG369" s="1"/>
+      <c r="BH369" s="1"/>
+      <c r="BI369" s="1"/>
+      <c r="BJ369" s="1"/>
+      <c r="BK369" s="1"/>
+      <c r="BL369" s="1"/>
+      <c r="BM369" s="1"/>
+      <c r="BN369" s="1"/>
+      <c r="BO369" s="1"/>
+      <c r="BP369" s="1"/>
+      <c r="BQ369" s="1"/>
+      <c r="BR369" s="1"/>
+      <c r="BS369" s="1"/>
+      <c r="BT369" s="1"/>
+      <c r="BU369" s="1"/>
+      <c r="BV369" s="1"/>
+      <c r="BW369" s="1"/>
+      <c r="BX369" s="1"/>
+      <c r="BY369" s="1"/>
+      <c r="BZ369" s="1"/>
+      <c r="CA369" s="1"/>
+      <c r="CB369" s="1"/>
+      <c r="CC369" s="1"/>
+      <c r="CD369" s="1"/>
+      <c r="CE369" s="1"/>
+      <c r="CF369" s="1"/>
+      <c r="CG369" s="1"/>
+      <c r="CH369" s="1"/>
+      <c r="CI369" s="1"/>
+      <c r="CJ369" s="1"/>
+      <c r="CK369" s="1"/>
+      <c r="CL369" s="1"/>
+      <c r="CM369" s="1"/>
+      <c r="CN369" s="1"/>
+      <c r="CO369" s="1"/>
+      <c r="CP369" s="1"/>
+      <c r="CQ369" s="1"/>
+      <c r="CR369" s="1"/>
+      <c r="CS369" s="1"/>
+      <c r="CT369" s="1"/>
+      <c r="CU369" s="1"/>
+      <c r="CV369" s="1"/>
+      <c r="CW369" s="1"/>
     </row>
-    <row r="370" spans="1:101" s="21" customFormat="1">
-      <c r="A370" s="17" t="s">
+    <row r="370" spans="1:101">
+      <c r="A370" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B370" s="17">
+      <c r="B370" s="1">
         <v>2060019</v>
       </c>
-      <c r="C370" s="17" t="s">
+      <c r="C370" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D370" s="17" t="s">
+      <c r="D370" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E370" s="17" t="s">
+      <c r="E370" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F370" s="17">
-        <v>1</v>
-      </c>
-      <c r="G370" s="17">
-        <v>1</v>
-      </c>
-      <c r="H370" s="17">
+      <c r="F370" s="1">
+        <v>1</v>
+      </c>
+      <c r="G370" s="1">
+        <v>1</v>
+      </c>
+      <c r="H370" s="1">
         <v>2.4</v>
       </c>
-      <c r="I370" s="23">
-        <v>1</v>
-      </c>
-      <c r="J370" s="18"/>
-      <c r="K370" s="19" t="s">
+      <c r="I370" s="15">
+        <v>1</v>
+      </c>
+      <c r="J370" s="11"/>
+      <c r="K370" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L370" s="17"/>
-      <c r="M370" s="17"/>
-      <c r="N370" s="17"/>
-      <c r="O370" s="17"/>
-      <c r="P370" s="17"/>
-      <c r="Q370" s="17"/>
-      <c r="R370" s="17"/>
-      <c r="S370" s="17"/>
-      <c r="T370" s="17"/>
-      <c r="U370" s="17"/>
-      <c r="V370" s="17"/>
-      <c r="W370" s="17"/>
-      <c r="X370" s="17"/>
-      <c r="Y370" s="17"/>
-      <c r="Z370" s="17"/>
-      <c r="AA370" s="17"/>
-      <c r="AB370" s="17"/>
-      <c r="AC370" s="17"/>
-      <c r="AD370" s="17"/>
-      <c r="AE370" s="17"/>
-      <c r="AF370" s="22"/>
-      <c r="AG370" s="17"/>
-      <c r="AH370" s="17"/>
-      <c r="AI370" s="17"/>
-      <c r="AJ370" s="17"/>
-      <c r="AK370" s="17"/>
-      <c r="AL370" s="17"/>
-      <c r="AM370" s="17"/>
-      <c r="AN370" s="17"/>
-      <c r="AO370" s="17"/>
-      <c r="AP370" s="17"/>
-      <c r="AQ370" s="17"/>
-      <c r="AR370" s="17"/>
-      <c r="AS370" s="17"/>
-      <c r="AT370" s="17"/>
-      <c r="AU370" s="17"/>
-      <c r="AV370" s="17"/>
-      <c r="AW370" s="17"/>
-      <c r="AX370" s="17"/>
-      <c r="AY370" s="17"/>
-      <c r="AZ370" s="17"/>
-      <c r="BA370" s="17"/>
-      <c r="BB370" s="17"/>
-      <c r="BC370" s="17"/>
-      <c r="BD370" s="17"/>
-      <c r="BE370" s="17"/>
-      <c r="BF370" s="17"/>
-      <c r="BG370" s="17"/>
-      <c r="BH370" s="17"/>
-      <c r="BI370" s="17"/>
-      <c r="BJ370" s="17"/>
-      <c r="BK370" s="17"/>
-      <c r="BL370" s="17"/>
-      <c r="BM370" s="17"/>
-      <c r="BN370" s="17"/>
-      <c r="BO370" s="17"/>
-      <c r="BP370" s="17"/>
-      <c r="BQ370" s="17"/>
-      <c r="BR370" s="17"/>
-      <c r="BS370" s="17"/>
-      <c r="BT370" s="17"/>
-      <c r="BU370" s="17"/>
-      <c r="BV370" s="17"/>
-      <c r="BW370" s="17"/>
-      <c r="BX370" s="17"/>
-      <c r="BY370" s="17"/>
-      <c r="BZ370" s="17"/>
-      <c r="CA370" s="17"/>
-      <c r="CB370" s="17"/>
-      <c r="CC370" s="17"/>
-      <c r="CD370" s="17"/>
-      <c r="CE370" s="17"/>
-      <c r="CF370" s="17"/>
-      <c r="CG370" s="17"/>
-      <c r="CH370" s="17"/>
-      <c r="CI370" s="17"/>
-      <c r="CJ370" s="17"/>
-      <c r="CK370" s="17"/>
-      <c r="CL370" s="17"/>
-      <c r="CM370" s="17"/>
-      <c r="CN370" s="17"/>
-      <c r="CO370" s="17"/>
-      <c r="CP370" s="17"/>
-      <c r="CQ370" s="17"/>
-      <c r="CR370" s="17"/>
-      <c r="CS370" s="17"/>
-      <c r="CT370" s="17"/>
-      <c r="CU370" s="17"/>
-      <c r="CV370" s="17"/>
-      <c r="CW370" s="17"/>
+      <c r="L370" s="1"/>
+      <c r="M370" s="1"/>
+      <c r="N370" s="1"/>
+      <c r="O370" s="1"/>
+      <c r="P370" s="1"/>
+      <c r="Q370" s="1"/>
+      <c r="R370" s="1"/>
+      <c r="S370" s="1"/>
+      <c r="T370" s="1"/>
+      <c r="U370" s="1"/>
+      <c r="V370" s="1"/>
+      <c r="W370" s="1"/>
+      <c r="X370" s="1"/>
+      <c r="Y370" s="1"/>
+      <c r="Z370" s="1"/>
+      <c r="AA370" s="1"/>
+      <c r="AB370" s="1"/>
+      <c r="AC370" s="1"/>
+      <c r="AD370" s="1"/>
+      <c r="AE370" s="1"/>
+      <c r="AF370" s="10"/>
+      <c r="AG370" s="1"/>
+      <c r="AH370" s="1"/>
+      <c r="AI370" s="1"/>
+      <c r="AJ370" s="1"/>
+      <c r="AK370" s="1"/>
+      <c r="AL370" s="1"/>
+      <c r="AM370" s="1"/>
+      <c r="AN370" s="1"/>
+      <c r="AO370" s="1"/>
+      <c r="AP370" s="1"/>
+      <c r="AQ370" s="1"/>
+      <c r="AR370" s="1"/>
+      <c r="AS370" s="1"/>
+      <c r="AT370" s="1"/>
+      <c r="AU370" s="1"/>
+      <c r="AV370" s="1"/>
+      <c r="AW370" s="1"/>
+      <c r="AX370" s="1"/>
+      <c r="AY370" s="1"/>
+      <c r="AZ370" s="1"/>
+      <c r="BA370" s="1"/>
+      <c r="BB370" s="1"/>
+      <c r="BC370" s="1"/>
+      <c r="BD370" s="1"/>
+      <c r="BE370" s="1"/>
+      <c r="BF370" s="1"/>
+      <c r="BG370" s="1"/>
+      <c r="BH370" s="1"/>
+      <c r="BI370" s="1"/>
+      <c r="BJ370" s="1"/>
+      <c r="BK370" s="1"/>
+      <c r="BL370" s="1"/>
+      <c r="BM370" s="1"/>
+      <c r="BN370" s="1"/>
+      <c r="BO370" s="1"/>
+      <c r="BP370" s="1"/>
+      <c r="BQ370" s="1"/>
+      <c r="BR370" s="1"/>
+      <c r="BS370" s="1"/>
+      <c r="BT370" s="1"/>
+      <c r="BU370" s="1"/>
+      <c r="BV370" s="1"/>
+      <c r="BW370" s="1"/>
+      <c r="BX370" s="1"/>
+      <c r="BY370" s="1"/>
+      <c r="BZ370" s="1"/>
+      <c r="CA370" s="1"/>
+      <c r="CB370" s="1"/>
+      <c r="CC370" s="1"/>
+      <c r="CD370" s="1"/>
+      <c r="CE370" s="1"/>
+      <c r="CF370" s="1"/>
+      <c r="CG370" s="1"/>
+      <c r="CH370" s="1"/>
+      <c r="CI370" s="1"/>
+      <c r="CJ370" s="1"/>
+      <c r="CK370" s="1"/>
+      <c r="CL370" s="1"/>
+      <c r="CM370" s="1"/>
+      <c r="CN370" s="1"/>
+      <c r="CO370" s="1"/>
+      <c r="CP370" s="1"/>
+      <c r="CQ370" s="1"/>
+      <c r="CR370" s="1"/>
+      <c r="CS370" s="1"/>
+      <c r="CT370" s="1"/>
+      <c r="CU370" s="1"/>
+      <c r="CV370" s="1"/>
+      <c r="CW370" s="1"/>
     </row>
-    <row r="371" spans="1:101" s="21" customFormat="1">
-      <c r="A371" s="17" t="s">
+    <row r="371" spans="1:101">
+      <c r="A371" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B371" s="17">
+      <c r="B371" s="1">
         <v>2060019</v>
       </c>
-      <c r="C371" s="17" t="s">
+      <c r="C371" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D371" s="17" t="s">
+      <c r="D371" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E371" s="17" t="s">
+      <c r="E371" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F371" s="17">
+      <c r="F371" s="1">
         <v>2</v>
       </c>
-      <c r="G371" s="17">
-        <v>1</v>
-      </c>
-      <c r="H371" s="17">
+      <c r="G371" s="1">
+        <v>1</v>
+      </c>
+      <c r="H371" s="1">
         <v>2.4</v>
       </c>
-      <c r="I371" s="23">
-        <v>1</v>
-      </c>
-      <c r="J371" s="18"/>
-      <c r="K371" s="19" t="s">
+      <c r="I371" s="15">
+        <v>1</v>
+      </c>
+      <c r="J371" s="11"/>
+      <c r="K371" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L371" s="17"/>
-      <c r="M371" s="17"/>
-      <c r="N371" s="17"/>
-      <c r="O371" s="17"/>
-      <c r="P371" s="17"/>
-      <c r="Q371" s="17"/>
-      <c r="R371" s="17"/>
-      <c r="S371" s="17"/>
-      <c r="T371" s="17"/>
-      <c r="U371" s="17"/>
-      <c r="V371" s="17"/>
-      <c r="W371" s="17"/>
-      <c r="X371" s="17"/>
-      <c r="Y371" s="17"/>
-      <c r="Z371" s="17"/>
-      <c r="AA371" s="17"/>
-      <c r="AB371" s="17"/>
-      <c r="AC371" s="17"/>
-      <c r="AD371" s="17"/>
-      <c r="AE371" s="17"/>
-      <c r="AF371" s="17"/>
-      <c r="AG371" s="17"/>
-      <c r="AH371" s="17"/>
-      <c r="AI371" s="17"/>
-      <c r="AJ371" s="17"/>
-      <c r="AK371" s="17"/>
-      <c r="AL371" s="17"/>
-      <c r="AM371" s="17"/>
-      <c r="AN371" s="17"/>
-      <c r="AO371" s="17"/>
-      <c r="AP371" s="17"/>
-      <c r="AQ371" s="17"/>
-      <c r="AR371" s="17"/>
-      <c r="AS371" s="17"/>
-      <c r="AT371" s="17"/>
-      <c r="AU371" s="17"/>
-      <c r="AV371" s="17"/>
-      <c r="AW371" s="17"/>
-      <c r="AX371" s="17"/>
-      <c r="AY371" s="17"/>
-      <c r="AZ371" s="17"/>
-      <c r="BA371" s="17"/>
-      <c r="BB371" s="17"/>
-      <c r="BC371" s="17"/>
-      <c r="BD371" s="17"/>
-      <c r="BE371" s="17"/>
-      <c r="BF371" s="17"/>
-      <c r="BG371" s="17"/>
-      <c r="BH371" s="17"/>
-      <c r="BI371" s="17"/>
-      <c r="BJ371" s="17"/>
-      <c r="BK371" s="17"/>
-      <c r="BL371" s="17"/>
-      <c r="BM371" s="17"/>
-      <c r="BN371" s="17"/>
-      <c r="BO371" s="17"/>
-      <c r="BP371" s="17"/>
-      <c r="BQ371" s="17"/>
-      <c r="BR371" s="17"/>
-      <c r="BS371" s="17"/>
-      <c r="BT371" s="17"/>
-      <c r="BU371" s="17"/>
-      <c r="BV371" s="17"/>
-      <c r="BW371" s="17"/>
-      <c r="BX371" s="17"/>
-      <c r="BY371" s="17"/>
-      <c r="BZ371" s="17"/>
-      <c r="CA371" s="17"/>
-      <c r="CB371" s="17"/>
-      <c r="CC371" s="17"/>
-      <c r="CD371" s="17"/>
-      <c r="CE371" s="17"/>
-      <c r="CF371" s="17"/>
-      <c r="CG371" s="17"/>
-      <c r="CH371" s="17"/>
-      <c r="CI371" s="17"/>
-      <c r="CJ371" s="17"/>
-      <c r="CK371" s="17"/>
-      <c r="CL371" s="17"/>
-      <c r="CM371" s="17"/>
-      <c r="CN371" s="17"/>
-      <c r="CO371" s="17"/>
-      <c r="CP371" s="17"/>
-      <c r="CQ371" s="17"/>
-      <c r="CR371" s="17"/>
-      <c r="CS371" s="17"/>
-      <c r="CT371" s="17"/>
-      <c r="CU371" s="17"/>
-      <c r="CV371" s="17"/>
-      <c r="CW371" s="17"/>
+      <c r="L371" s="1"/>
+      <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
+      <c r="O371" s="1"/>
+      <c r="P371" s="1"/>
+      <c r="Q371" s="1"/>
+      <c r="R371" s="1"/>
+      <c r="S371" s="1"/>
+      <c r="T371" s="1"/>
+      <c r="U371" s="1"/>
+      <c r="V371" s="1"/>
+      <c r="W371" s="1"/>
+      <c r="X371" s="1"/>
+      <c r="Y371" s="1"/>
+      <c r="Z371" s="1"/>
+      <c r="AA371" s="1"/>
+      <c r="AB371" s="1"/>
+      <c r="AC371" s="1"/>
+      <c r="AD371" s="1"/>
+      <c r="AE371" s="1"/>
+      <c r="AF371" s="1"/>
+      <c r="AG371" s="1"/>
+      <c r="AH371" s="1"/>
+      <c r="AI371" s="1"/>
+      <c r="AJ371" s="1"/>
+      <c r="AK371" s="1"/>
+      <c r="AL371" s="1"/>
+      <c r="AM371" s="1"/>
+      <c r="AN371" s="1"/>
+      <c r="AO371" s="1"/>
+      <c r="AP371" s="1"/>
+      <c r="AQ371" s="1"/>
+      <c r="AR371" s="1"/>
+      <c r="AS371" s="1"/>
+      <c r="AT371" s="1"/>
+      <c r="AU371" s="1"/>
+      <c r="AV371" s="1"/>
+      <c r="AW371" s="1"/>
+      <c r="AX371" s="1"/>
+      <c r="AY371" s="1"/>
+      <c r="AZ371" s="1"/>
+      <c r="BA371" s="1"/>
+      <c r="BB371" s="1"/>
+      <c r="BC371" s="1"/>
+      <c r="BD371" s="1"/>
+      <c r="BE371" s="1"/>
+      <c r="BF371" s="1"/>
+      <c r="BG371" s="1"/>
+      <c r="BH371" s="1"/>
+      <c r="BI371" s="1"/>
+      <c r="BJ371" s="1"/>
+      <c r="BK371" s="1"/>
+      <c r="BL371" s="1"/>
+      <c r="BM371" s="1"/>
+      <c r="BN371" s="1"/>
+      <c r="BO371" s="1"/>
+      <c r="BP371" s="1"/>
+      <c r="BQ371" s="1"/>
+      <c r="BR371" s="1"/>
+      <c r="BS371" s="1"/>
+      <c r="BT371" s="1"/>
+      <c r="BU371" s="1"/>
+      <c r="BV371" s="1"/>
+      <c r="BW371" s="1"/>
+      <c r="BX371" s="1"/>
+      <c r="BY371" s="1"/>
+      <c r="BZ371" s="1"/>
+      <c r="CA371" s="1"/>
+      <c r="CB371" s="1"/>
+      <c r="CC371" s="1"/>
+      <c r="CD371" s="1"/>
+      <c r="CE371" s="1"/>
+      <c r="CF371" s="1"/>
+      <c r="CG371" s="1"/>
+      <c r="CH371" s="1"/>
+      <c r="CI371" s="1"/>
+      <c r="CJ371" s="1"/>
+      <c r="CK371" s="1"/>
+      <c r="CL371" s="1"/>
+      <c r="CM371" s="1"/>
+      <c r="CN371" s="1"/>
+      <c r="CO371" s="1"/>
+      <c r="CP371" s="1"/>
+      <c r="CQ371" s="1"/>
+      <c r="CR371" s="1"/>
+      <c r="CS371" s="1"/>
+      <c r="CT371" s="1"/>
+      <c r="CU371" s="1"/>
+      <c r="CV371" s="1"/>
+      <c r="CW371" s="1"/>
     </row>
-    <row r="372" spans="1:101" s="21" customFormat="1">
-      <c r="A372" s="17" t="s">
+    <row r="372" spans="1:101">
+      <c r="A372" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B372" s="17">
+      <c r="B372" s="1">
         <v>2060019</v>
       </c>
-      <c r="C372" s="17" t="s">
+      <c r="C372" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D372" s="17" t="s">
+      <c r="D372" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E372" s="17" t="s">
+      <c r="E372" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F372" s="17">
+      <c r="F372" s="1">
         <v>3</v>
       </c>
-      <c r="G372" s="17">
-        <v>1</v>
-      </c>
-      <c r="H372" s="17">
+      <c r="G372" s="1">
+        <v>1</v>
+      </c>
+      <c r="H372" s="1">
         <v>2.4</v>
       </c>
-      <c r="I372" s="23">
-        <v>1</v>
-      </c>
-      <c r="J372" s="18"/>
-      <c r="K372" s="19" t="s">
+      <c r="I372" s="15">
+        <v>1</v>
+      </c>
+      <c r="J372" s="11"/>
+      <c r="K372" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L372" s="17"/>
-      <c r="M372" s="17"/>
-      <c r="N372" s="17"/>
-      <c r="O372" s="17"/>
-      <c r="P372" s="17"/>
-      <c r="Q372" s="17"/>
-      <c r="R372" s="17"/>
-      <c r="S372" s="17"/>
-      <c r="T372" s="17"/>
-      <c r="U372" s="17"/>
-      <c r="V372" s="17"/>
-      <c r="W372" s="17"/>
-      <c r="X372" s="17"/>
-      <c r="Y372" s="17"/>
-      <c r="Z372" s="17"/>
-      <c r="AA372" s="17"/>
-      <c r="AB372" s="17"/>
-      <c r="AC372" s="17"/>
-      <c r="AD372" s="17"/>
-      <c r="AE372" s="17"/>
-      <c r="AF372" s="17"/>
-      <c r="AG372" s="17"/>
-      <c r="AH372" s="17"/>
-      <c r="AI372" s="17"/>
-      <c r="AJ372" s="17"/>
-      <c r="AK372" s="17"/>
-      <c r="AL372" s="17"/>
-      <c r="AM372" s="17"/>
-      <c r="AN372" s="17"/>
-      <c r="AO372" s="17"/>
-      <c r="AP372" s="17"/>
-      <c r="AQ372" s="17"/>
-      <c r="AR372" s="17"/>
-      <c r="AS372" s="17"/>
-      <c r="AT372" s="17"/>
-      <c r="AU372" s="17"/>
-      <c r="AV372" s="17"/>
-      <c r="AW372" s="17"/>
-      <c r="AX372" s="17"/>
-      <c r="AY372" s="17"/>
-      <c r="AZ372" s="17"/>
-      <c r="BA372" s="17"/>
-      <c r="BB372" s="17"/>
-      <c r="BC372" s="17"/>
-      <c r="BD372" s="17"/>
-      <c r="BE372" s="17"/>
-      <c r="BF372" s="17"/>
-      <c r="BG372" s="17"/>
-      <c r="BH372" s="17"/>
-      <c r="BI372" s="17"/>
-      <c r="BJ372" s="17"/>
-      <c r="BK372" s="17"/>
-      <c r="BL372" s="17"/>
-      <c r="BM372" s="17"/>
-      <c r="BN372" s="17"/>
-      <c r="BO372" s="17"/>
-      <c r="BP372" s="17"/>
-      <c r="BQ372" s="17"/>
-      <c r="BR372" s="17"/>
-      <c r="BS372" s="17"/>
-      <c r="BT372" s="17"/>
-      <c r="BU372" s="17"/>
-      <c r="BV372" s="17"/>
-      <c r="BW372" s="17"/>
-      <c r="BX372" s="17"/>
-      <c r="BY372" s="17"/>
-      <c r="BZ372" s="17"/>
-      <c r="CA372" s="17"/>
-      <c r="CB372" s="17"/>
-      <c r="CC372" s="17"/>
-      <c r="CD372" s="17"/>
-      <c r="CE372" s="17"/>
-      <c r="CF372" s="17"/>
-      <c r="CG372" s="17"/>
-      <c r="CH372" s="17"/>
-      <c r="CI372" s="17"/>
-      <c r="CJ372" s="17"/>
-      <c r="CK372" s="17"/>
-      <c r="CL372" s="17"/>
-      <c r="CM372" s="17"/>
-      <c r="CN372" s="17"/>
-      <c r="CO372" s="17"/>
-      <c r="CP372" s="17"/>
-      <c r="CQ372" s="17"/>
-      <c r="CR372" s="17"/>
-      <c r="CS372" s="17"/>
-      <c r="CT372" s="17"/>
-      <c r="CU372" s="17"/>
-      <c r="CV372" s="17"/>
-      <c r="CW372" s="17"/>
+      <c r="L372" s="1"/>
+      <c r="M372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+      <c r="P372" s="1"/>
+      <c r="Q372" s="1"/>
+      <c r="R372" s="1"/>
+      <c r="S372" s="1"/>
+      <c r="T372" s="1"/>
+      <c r="U372" s="1"/>
+      <c r="V372" s="1"/>
+      <c r="W372" s="1"/>
+      <c r="X372" s="1"/>
+      <c r="Y372" s="1"/>
+      <c r="Z372" s="1"/>
+      <c r="AA372" s="1"/>
+      <c r="AB372" s="1"/>
+      <c r="AC372" s="1"/>
+      <c r="AD372" s="1"/>
+      <c r="AE372" s="1"/>
+      <c r="AF372" s="1"/>
+      <c r="AG372" s="1"/>
+      <c r="AH372" s="1"/>
+      <c r="AI372" s="1"/>
+      <c r="AJ372" s="1"/>
+      <c r="AK372" s="1"/>
+      <c r="AL372" s="1"/>
+      <c r="AM372" s="1"/>
+      <c r="AN372" s="1"/>
+      <c r="AO372" s="1"/>
+      <c r="AP372" s="1"/>
+      <c r="AQ372" s="1"/>
+      <c r="AR372" s="1"/>
+      <c r="AS372" s="1"/>
+      <c r="AT372" s="1"/>
+      <c r="AU372" s="1"/>
+      <c r="AV372" s="1"/>
+      <c r="AW372" s="1"/>
+      <c r="AX372" s="1"/>
+      <c r="AY372" s="1"/>
+      <c r="AZ372" s="1"/>
+      <c r="BA372" s="1"/>
+      <c r="BB372" s="1"/>
+      <c r="BC372" s="1"/>
+      <c r="BD372" s="1"/>
+      <c r="BE372" s="1"/>
+      <c r="BF372" s="1"/>
+      <c r="BG372" s="1"/>
+      <c r="BH372" s="1"/>
+      <c r="BI372" s="1"/>
+      <c r="BJ372" s="1"/>
+      <c r="BK372" s="1"/>
+      <c r="BL372" s="1"/>
+      <c r="BM372" s="1"/>
+      <c r="BN372" s="1"/>
+      <c r="BO372" s="1"/>
+      <c r="BP372" s="1"/>
+      <c r="BQ372" s="1"/>
+      <c r="BR372" s="1"/>
+      <c r="BS372" s="1"/>
+      <c r="BT372" s="1"/>
+      <c r="BU372" s="1"/>
+      <c r="BV372" s="1"/>
+      <c r="BW372" s="1"/>
+      <c r="BX372" s="1"/>
+      <c r="BY372" s="1"/>
+      <c r="BZ372" s="1"/>
+      <c r="CA372" s="1"/>
+      <c r="CB372" s="1"/>
+      <c r="CC372" s="1"/>
+      <c r="CD372" s="1"/>
+      <c r="CE372" s="1"/>
+      <c r="CF372" s="1"/>
+      <c r="CG372" s="1"/>
+      <c r="CH372" s="1"/>
+      <c r="CI372" s="1"/>
+      <c r="CJ372" s="1"/>
+      <c r="CK372" s="1"/>
+      <c r="CL372" s="1"/>
+      <c r="CM372" s="1"/>
+      <c r="CN372" s="1"/>
+      <c r="CO372" s="1"/>
+      <c r="CP372" s="1"/>
+      <c r="CQ372" s="1"/>
+      <c r="CR372" s="1"/>
+      <c r="CS372" s="1"/>
+      <c r="CT372" s="1"/>
+      <c r="CU372" s="1"/>
+      <c r="CV372" s="1"/>
+      <c r="CW372" s="1"/>
     </row>
     <row r="373" spans="1:101">
       <c r="A373" s="1" t="s">
@@ -52309,29 +52312,29 @@
       <c r="CV402" s="1"/>
       <c r="CW402" s="1"/>
     </row>
-    <row r="403" spans="1:101" s="21" customFormat="1">
-      <c r="A403" s="17" t="s">
+    <row r="403" spans="1:101">
+      <c r="A403" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B403" s="17">
+      <c r="B403" s="1">
         <v>2060054</v>
       </c>
-      <c r="C403" s="17" t="s">
+      <c r="C403" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D403" s="17" t="s">
+      <c r="D403" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E403" s="17" t="s">
+      <c r="E403" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F403" s="17">
-        <v>1</v>
-      </c>
-      <c r="G403" s="17">
-        <v>1</v>
-      </c>
-      <c r="H403" s="17">
+      <c r="F403" s="1">
+        <v>1</v>
+      </c>
+      <c r="G403" s="1">
+        <v>1</v>
+      </c>
+      <c r="H403" s="1">
         <v>3.6</v>
       </c>
       <c r="I403" s="4">
@@ -52340,99 +52343,99 @@
       <c r="J403" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K403" s="19" t="s">
+      <c r="K403" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L403" s="17"/>
-      <c r="M403" s="17"/>
-      <c r="N403" s="17"/>
-      <c r="O403" s="17"/>
-      <c r="P403" s="17"/>
-      <c r="Q403" s="17"/>
-      <c r="R403" s="17"/>
-      <c r="S403" s="17"/>
-      <c r="T403" s="17"/>
-      <c r="U403" s="17"/>
-      <c r="V403" s="17"/>
-      <c r="W403" s="17"/>
-      <c r="X403" s="17"/>
-      <c r="Y403" s="17"/>
-      <c r="Z403" s="17"/>
-      <c r="AA403" s="17"/>
-      <c r="AB403" s="17"/>
-      <c r="AC403" s="17"/>
-      <c r="AD403" s="17"/>
-      <c r="AE403" s="17"/>
-      <c r="AF403" s="17"/>
-      <c r="AG403" s="17"/>
-      <c r="AH403" s="17"/>
-      <c r="AI403" s="17"/>
-      <c r="AJ403" s="17"/>
-      <c r="AK403" s="17"/>
-      <c r="AL403" s="17"/>
-      <c r="AM403" s="17"/>
-      <c r="AN403" s="17"/>
-      <c r="AO403" s="17"/>
-      <c r="AP403" s="17"/>
-      <c r="AQ403" s="17"/>
-      <c r="AR403" s="17"/>
-      <c r="AS403" s="17"/>
-      <c r="AT403" s="17"/>
-      <c r="AU403" s="17"/>
-      <c r="AV403" s="17"/>
-      <c r="AW403" s="17"/>
-      <c r="AX403" s="17"/>
-      <c r="AY403" s="17"/>
-      <c r="AZ403" s="17"/>
-      <c r="BA403" s="17"/>
-      <c r="BB403" s="17"/>
-      <c r="BC403" s="17"/>
-      <c r="BD403" s="17"/>
-      <c r="BE403" s="17"/>
-      <c r="BF403" s="17"/>
-      <c r="BG403" s="17"/>
-      <c r="BH403" s="17"/>
-      <c r="BI403" s="17"/>
-      <c r="BJ403" s="17"/>
-      <c r="BK403" s="17"/>
-      <c r="BL403" s="17"/>
-      <c r="BM403" s="20"/>
-      <c r="BN403" s="17"/>
-      <c r="BO403" s="17"/>
-      <c r="BP403" s="17"/>
-      <c r="BQ403" s="17"/>
-      <c r="BR403" s="17"/>
-      <c r="BS403" s="17"/>
-      <c r="BT403" s="17"/>
-      <c r="BU403" s="17"/>
-      <c r="BV403" s="17"/>
-      <c r="BW403" s="17"/>
-      <c r="BX403" s="17"/>
-      <c r="BY403" s="17"/>
-      <c r="BZ403" s="17"/>
-      <c r="CA403" s="17"/>
-      <c r="CB403" s="17"/>
-      <c r="CC403" s="17"/>
-      <c r="CD403" s="17"/>
-      <c r="CE403" s="17"/>
-      <c r="CF403" s="17"/>
-      <c r="CG403" s="17"/>
-      <c r="CH403" s="17"/>
-      <c r="CI403" s="17"/>
-      <c r="CJ403" s="17"/>
-      <c r="CK403" s="17"/>
-      <c r="CL403" s="17"/>
-      <c r="CM403" s="17"/>
-      <c r="CN403" s="17"/>
-      <c r="CO403" s="17"/>
-      <c r="CP403" s="17"/>
-      <c r="CQ403" s="17"/>
-      <c r="CR403" s="17"/>
-      <c r="CS403" s="17"/>
-      <c r="CT403" s="17"/>
-      <c r="CU403" s="17"/>
-      <c r="CV403" s="17"/>
-      <c r="CW403" s="17"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="1"/>
+      <c r="Q403" s="1"/>
+      <c r="R403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="T403" s="1"/>
+      <c r="U403" s="1"/>
+      <c r="V403" s="1"/>
+      <c r="W403" s="1"/>
+      <c r="X403" s="1"/>
+      <c r="Y403" s="1"/>
+      <c r="Z403" s="1"/>
+      <c r="AA403" s="1"/>
+      <c r="AB403" s="1"/>
+      <c r="AC403" s="1"/>
+      <c r="AD403" s="1"/>
+      <c r="AE403" s="1"/>
+      <c r="AF403" s="1"/>
+      <c r="AG403" s="1"/>
+      <c r="AH403" s="1"/>
+      <c r="AI403" s="1"/>
+      <c r="AJ403" s="1"/>
+      <c r="AK403" s="1"/>
+      <c r="AL403" s="1"/>
+      <c r="AM403" s="1"/>
+      <c r="AN403" s="1"/>
+      <c r="AO403" s="1"/>
+      <c r="AP403" s="1"/>
+      <c r="AQ403" s="1"/>
+      <c r="AR403" s="1"/>
+      <c r="AS403" s="1"/>
+      <c r="AT403" s="1"/>
+      <c r="AU403" s="1"/>
+      <c r="AV403" s="1"/>
+      <c r="AW403" s="1"/>
+      <c r="AX403" s="1"/>
+      <c r="AY403" s="1"/>
+      <c r="AZ403" s="1"/>
+      <c r="BA403" s="1"/>
+      <c r="BB403" s="1"/>
+      <c r="BC403" s="1"/>
+      <c r="BD403" s="1"/>
+      <c r="BE403" s="1"/>
+      <c r="BF403" s="1"/>
+      <c r="BG403" s="1"/>
+      <c r="BH403" s="1"/>
+      <c r="BI403" s="1"/>
+      <c r="BJ403" s="1"/>
+      <c r="BK403" s="1"/>
+      <c r="BL403" s="1"/>
+      <c r="BM403" s="8"/>
+      <c r="BN403" s="1"/>
+      <c r="BO403" s="1"/>
+      <c r="BP403" s="1"/>
+      <c r="BQ403" s="1"/>
+      <c r="BR403" s="1"/>
+      <c r="BS403" s="1"/>
+      <c r="BT403" s="1"/>
+      <c r="BU403" s="1"/>
+      <c r="BV403" s="1"/>
+      <c r="BW403" s="1"/>
+      <c r="BX403" s="1"/>
+      <c r="BY403" s="1"/>
+      <c r="BZ403" s="1"/>
+      <c r="CA403" s="1"/>
+      <c r="CB403" s="1"/>
+      <c r="CC403" s="1"/>
+      <c r="CD403" s="1"/>
+      <c r="CE403" s="1"/>
+      <c r="CF403" s="1"/>
+      <c r="CG403" s="1"/>
+      <c r="CH403" s="1"/>
+      <c r="CI403" s="1"/>
+      <c r="CJ403" s="1"/>
+      <c r="CK403" s="1"/>
+      <c r="CL403" s="1"/>
+      <c r="CM403" s="1"/>
+      <c r="CN403" s="1"/>
+      <c r="CO403" s="1"/>
+      <c r="CP403" s="1"/>
+      <c r="CQ403" s="1"/>
+      <c r="CR403" s="1"/>
+      <c r="CS403" s="1"/>
+      <c r="CT403" s="1"/>
+      <c r="CU403" s="1"/>
+      <c r="CV403" s="1"/>
+      <c r="CW403" s="1"/>
     </row>
     <row r="404" spans="1:101">
       <c r="A404" s="1" t="s">
@@ -70959,6 +70962,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -70966,12 +70975,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
